--- a/DataUsageDetails-201709.xlsx
+++ b/DataUsageDetails-201709.xlsx
@@ -4288,7 +4288,7 @@
     <col min="9" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" thickBot="1">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -25888,11 +25888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J2342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1187" workbookViewId="0">
-      <selection activeCell="C1193" sqref="C1193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25938,7 +25937,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -25971,7 +25970,7 @@
         <v>26362.21875</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26001,7 +26000,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -26031,7 +26030,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -26061,7 +26060,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -26091,7 +26090,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -26121,7 +26120,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -26151,7 +26150,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -26181,7 +26180,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -26211,7 +26210,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -26241,7 +26240,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -26271,7 +26270,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -26301,7 +26300,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -26331,7 +26330,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -26361,7 +26360,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -26391,7 +26390,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -26421,7 +26420,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -26451,7 +26450,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -26481,7 +26480,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -26511,7 +26510,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -26541,7 +26540,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -26571,7 +26570,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -26601,7 +26600,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -26631,7 +26630,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -26661,7 +26660,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -26691,7 +26690,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -26721,7 +26720,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -26751,7 +26750,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -26781,7 +26780,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -26811,7 +26810,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -26841,7 +26840,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -26871,7 +26870,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -26901,7 +26900,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -26931,7 +26930,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -26961,7 +26960,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -26991,7 +26990,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -27021,7 +27020,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -27051,7 +27050,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -27081,7 +27080,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -27111,7 +27110,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -27141,7 +27140,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -27171,7 +27170,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -27201,7 +27200,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -27231,7 +27230,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -27261,7 +27260,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="46" spans="1:10" ht="15" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -27291,7 +27290,7 @@
       </c>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -27321,7 +27320,7 @@
       </c>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="48" spans="1:10" ht="15" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -27351,7 +27350,7 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -27381,7 +27380,7 @@
       </c>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -27411,7 +27410,7 @@
       </c>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -27441,7 +27440,7 @@
       </c>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -27471,7 +27470,7 @@
       </c>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -27501,7 +27500,7 @@
       </c>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -27531,7 +27530,7 @@
       </c>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -27561,7 +27560,7 @@
       </c>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -27591,7 +27590,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -27621,7 +27620,7 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -27651,7 +27650,7 @@
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -27681,7 +27680,7 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -27711,7 +27710,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -27741,7 +27740,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -27771,7 +27770,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -27801,7 +27800,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -27831,7 +27830,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="65" spans="1:10" ht="15" thickBot="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -27861,7 +27860,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="66" spans="1:10" ht="15" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -27891,7 +27890,7 @@
       </c>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="67" spans="1:10" ht="15" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -27921,7 +27920,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -27951,7 +27950,7 @@
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="69" spans="1:10" ht="15" thickBot="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -27981,7 +27980,7 @@
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="70" spans="1:10" ht="15" thickBot="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -28011,7 +28010,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="71" spans="1:10" ht="15" thickBot="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -28041,7 +28040,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="72" spans="1:10" ht="15" thickBot="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -28071,7 +28070,7 @@
       </c>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="73" spans="1:10" ht="15" thickBot="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -28101,7 +28100,7 @@
       </c>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="74" spans="1:10" ht="15" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -28131,7 +28130,7 @@
       </c>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -28161,7 +28160,7 @@
       </c>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -28191,7 +28190,7 @@
       </c>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="77" spans="1:10" ht="15" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -28221,7 +28220,7 @@
       </c>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="78" spans="1:10" ht="15" thickBot="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -28251,7 +28250,7 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="79" spans="1:10" ht="15" thickBot="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -28281,7 +28280,7 @@
       </c>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="80" spans="1:10" ht="15" thickBot="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -28311,7 +28310,7 @@
       </c>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -28341,7 +28340,7 @@
       </c>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -28371,7 +28370,7 @@
       </c>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -28401,7 +28400,7 @@
       </c>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -28431,7 +28430,7 @@
       </c>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -28461,7 +28460,7 @@
       </c>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -28491,7 +28490,7 @@
       </c>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -28521,7 +28520,7 @@
       </c>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -28551,7 +28550,7 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -28581,7 +28580,7 @@
       </c>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -28611,7 +28610,7 @@
       </c>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -28641,7 +28640,7 @@
       </c>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -28671,7 +28670,7 @@
       </c>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -28701,7 +28700,7 @@
       </c>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -28731,7 +28730,7 @@
       </c>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -28761,7 +28760,7 @@
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -28791,7 +28790,7 @@
       </c>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="97" spans="1:10" ht="15" thickBot="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -28821,7 +28820,7 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="98" spans="1:10" ht="15" thickBot="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -28851,7 +28850,7 @@
       </c>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="99" spans="1:10" ht="15" thickBot="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -28881,7 +28880,7 @@
       </c>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="100" spans="1:10" ht="15" thickBot="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -28911,7 +28910,7 @@
       </c>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="101" spans="1:10" ht="15" thickBot="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -28941,7 +28940,7 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="102" spans="1:10" ht="15" thickBot="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -28971,7 +28970,7 @@
       </c>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="103" spans="1:10" ht="15" thickBot="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -29001,7 +29000,7 @@
       </c>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="104" spans="1:10" ht="15" thickBot="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -29031,7 +29030,7 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="105" spans="1:10" ht="15" thickBot="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -29061,7 +29060,7 @@
       </c>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="106" spans="1:10" ht="15" thickBot="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -29091,7 +29090,7 @@
       </c>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="107" spans="1:10" ht="15" thickBot="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -29121,7 +29120,7 @@
       </c>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="108" spans="1:10" ht="15" thickBot="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -29151,7 +29150,7 @@
       </c>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="109" spans="1:10" ht="15" thickBot="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -29181,7 +29180,7 @@
       </c>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="110" spans="1:10" ht="15" thickBot="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -29211,7 +29210,7 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="111" spans="1:10" ht="15" thickBot="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -29241,7 +29240,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="112" spans="1:10" ht="15" thickBot="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -29271,7 +29270,7 @@
       </c>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="113" spans="1:10" ht="15" thickBot="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -29301,7 +29300,7 @@
       </c>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="114" spans="1:10" ht="15" thickBot="1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -29331,7 +29330,7 @@
       </c>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="115" spans="1:10" ht="15" thickBot="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -29361,7 +29360,7 @@
       </c>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="116" spans="1:10" ht="15" thickBot="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -29391,7 +29390,7 @@
       </c>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="117" spans="1:10" ht="15" thickBot="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -29421,7 +29420,7 @@
       </c>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="118" spans="1:10" ht="15" thickBot="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -29451,7 +29450,7 @@
       </c>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="119" spans="1:10" ht="15" thickBot="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -29481,7 +29480,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="120" spans="1:10" ht="15" thickBot="1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -29511,7 +29510,7 @@
       </c>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="121" spans="1:10" ht="15" thickBot="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -29541,7 +29540,7 @@
       </c>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="122" spans="1:10" ht="15" thickBot="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -29571,7 +29570,7 @@
       </c>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:10" ht="15" thickBot="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -29601,7 +29600,7 @@
       </c>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="124" spans="1:10" ht="15" thickBot="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -29631,7 +29630,7 @@
       </c>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="125" spans="1:10" ht="15" thickBot="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -29661,7 +29660,7 @@
       </c>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="126" spans="1:10" ht="15" thickBot="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -29691,7 +29690,7 @@
       </c>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="127" spans="1:10" ht="15" thickBot="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -29721,7 +29720,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="128" spans="1:10" ht="15" thickBot="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -29751,7 +29750,7 @@
       </c>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="129" spans="1:10" ht="15" thickBot="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -29781,7 +29780,7 @@
       </c>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="130" spans="1:10" ht="15" thickBot="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -29811,7 +29810,7 @@
       </c>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="131" spans="1:10" ht="15" thickBot="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -29841,7 +29840,7 @@
       </c>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="132" spans="1:10" ht="15" thickBot="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -29871,7 +29870,7 @@
       </c>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="133" spans="1:10" ht="15" thickBot="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -29901,7 +29900,7 @@
       </c>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="134" spans="1:10" ht="15" thickBot="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -29931,7 +29930,7 @@
       </c>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="135" spans="1:10" ht="15" thickBot="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -29961,7 +29960,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="136" spans="1:10" ht="15" thickBot="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -29991,7 +29990,7 @@
       </c>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="137" spans="1:10" ht="15" thickBot="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -30021,7 +30020,7 @@
       </c>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="138" spans="1:10" ht="15" thickBot="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -30051,7 +30050,7 @@
       </c>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="139" spans="1:10" ht="15" thickBot="1">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -30081,7 +30080,7 @@
       </c>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="140" spans="1:10" ht="15" thickBot="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -30111,7 +30110,7 @@
       </c>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="141" spans="1:10" ht="15" thickBot="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -30141,7 +30140,7 @@
       </c>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="142" spans="1:10" ht="15" thickBot="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -30171,7 +30170,7 @@
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="143" spans="1:10" ht="15" thickBot="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -30201,7 +30200,7 @@
       </c>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="144" spans="1:10" ht="15" thickBot="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -30231,7 +30230,7 @@
       </c>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="145" spans="1:10" ht="15" thickBot="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -30261,7 +30260,7 @@
       </c>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="146" spans="1:10" ht="15" thickBot="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -30291,7 +30290,7 @@
       </c>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="147" spans="1:10" ht="15" thickBot="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -30321,7 +30320,7 @@
       </c>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="148" spans="1:10" ht="15" thickBot="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -30351,7 +30350,7 @@
       </c>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="149" spans="1:10" ht="15" thickBot="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -30381,7 +30380,7 @@
       </c>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="150" spans="1:10" ht="15" thickBot="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -30411,7 +30410,7 @@
       </c>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="151" spans="1:10" ht="15" thickBot="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -30441,7 +30440,7 @@
       </c>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="152" spans="1:10" ht="15" thickBot="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -30471,7 +30470,7 @@
       </c>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="153" spans="1:10" ht="15" thickBot="1">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -30501,7 +30500,7 @@
       </c>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="154" spans="1:10" ht="15" thickBot="1">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -30531,7 +30530,7 @@
       </c>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="155" spans="1:10" ht="15" thickBot="1">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -30561,7 +30560,7 @@
       </c>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="156" spans="1:10" ht="15" thickBot="1">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -30591,7 +30590,7 @@
       </c>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="157" spans="1:10" ht="15" thickBot="1">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -30621,7 +30620,7 @@
       </c>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="158" spans="1:10" ht="15" thickBot="1">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -30651,7 +30650,7 @@
       </c>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="159" spans="1:10" ht="15" thickBot="1">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -30681,7 +30680,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="160" spans="1:10" ht="15" thickBot="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -30711,7 +30710,7 @@
       </c>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="161" spans="1:10" ht="15" thickBot="1">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -30741,7 +30740,7 @@
       </c>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="162" spans="1:10" ht="15" thickBot="1">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -30771,7 +30770,7 @@
       </c>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="163" spans="1:10" ht="15" thickBot="1">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -30801,7 +30800,7 @@
       </c>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="164" spans="1:10" ht="15" thickBot="1">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -30831,7 +30830,7 @@
       </c>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="165" spans="1:10" ht="15" thickBot="1">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -30861,7 +30860,7 @@
       </c>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="166" spans="1:10" ht="15" thickBot="1">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -30891,7 +30890,7 @@
       </c>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="167" spans="1:10" ht="15" thickBot="1">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -30921,7 +30920,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="168" spans="1:10" ht="15" thickBot="1">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -30951,7 +30950,7 @@
       </c>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="169" spans="1:10" ht="15" thickBot="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -30981,7 +30980,7 @@
       </c>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="170" spans="1:10" ht="15" thickBot="1">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -31011,7 +31010,7 @@
       </c>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="171" spans="1:10" ht="15" thickBot="1">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -31041,7 +31040,7 @@
       </c>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="172" spans="1:10" ht="15" thickBot="1">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -31071,7 +31070,7 @@
       </c>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="173" spans="1:10" ht="15" thickBot="1">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -31101,7 +31100,7 @@
       </c>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="174" spans="1:10" ht="15" thickBot="1">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -31131,7 +31130,7 @@
       </c>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="175" spans="1:10" ht="15" thickBot="1">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -31161,7 +31160,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="176" spans="1:10" ht="15" thickBot="1">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -31191,7 +31190,7 @@
       </c>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="177" spans="1:10" ht="15" thickBot="1">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -31221,7 +31220,7 @@
       </c>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="178" spans="1:10" ht="15" thickBot="1">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -31251,7 +31250,7 @@
       </c>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="179" spans="1:10" ht="15" thickBot="1">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -31281,7 +31280,7 @@
       </c>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="180" spans="1:10" ht="15" thickBot="1">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -31311,7 +31310,7 @@
       </c>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="181" spans="1:10" ht="15" thickBot="1">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -31341,7 +31340,7 @@
       </c>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="182" spans="1:10" ht="15" thickBot="1">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -31371,7 +31370,7 @@
       </c>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="183" spans="1:10" ht="15" thickBot="1">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -31401,7 +31400,7 @@
       </c>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="184" spans="1:10" ht="15" thickBot="1">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -31431,7 +31430,7 @@
       </c>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="185" spans="1:10" ht="15" thickBot="1">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -31461,7 +31460,7 @@
       </c>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="186" spans="1:10" ht="15" thickBot="1">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -31491,7 +31490,7 @@
       </c>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="187" spans="1:10" ht="15" thickBot="1">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -31521,7 +31520,7 @@
       </c>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="188" spans="1:10" ht="15" thickBot="1">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -31551,7 +31550,7 @@
       </c>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="189" spans="1:10" ht="15" thickBot="1">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -31581,7 +31580,7 @@
       </c>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="190" spans="1:10" ht="15" thickBot="1">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -31611,7 +31610,7 @@
       </c>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="191" spans="1:10" ht="15" thickBot="1">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -31641,7 +31640,7 @@
       </c>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="192" spans="1:10" ht="15" thickBot="1">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -31671,7 +31670,7 @@
       </c>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="193" spans="1:10" ht="15" thickBot="1">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -31701,7 +31700,7 @@
       </c>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="194" spans="1:10" ht="15" thickBot="1">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -31731,7 +31730,7 @@
       </c>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="195" spans="1:10" ht="15" thickBot="1">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -31761,7 +31760,7 @@
       </c>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="196" spans="1:10" ht="15" thickBot="1">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -31791,7 +31790,7 @@
       </c>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="197" spans="1:10" ht="15" thickBot="1">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -31821,7 +31820,7 @@
       </c>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="198" spans="1:10" ht="15" thickBot="1">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -31851,7 +31850,7 @@
       </c>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="199" spans="1:10" ht="15" thickBot="1">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -31881,7 +31880,7 @@
       </c>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="200" spans="1:10" ht="15" thickBot="1">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -31911,7 +31910,7 @@
       </c>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="201" spans="1:10" ht="15" thickBot="1">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -31941,7 +31940,7 @@
       </c>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="202" spans="1:10" ht="15" thickBot="1">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -31971,7 +31970,7 @@
       </c>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="203" spans="1:10" ht="15" thickBot="1">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -32001,7 +32000,7 @@
       </c>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="204" spans="1:10" ht="15" thickBot="1">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -32031,7 +32030,7 @@
       </c>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="205" spans="1:10" ht="15" thickBot="1">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -32061,7 +32060,7 @@
       </c>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="206" spans="1:10" ht="15" thickBot="1">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -32091,7 +32090,7 @@
       </c>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="207" spans="1:10" ht="15" thickBot="1">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -32121,7 +32120,7 @@
       </c>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="208" spans="1:10" ht="15" thickBot="1">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -32151,7 +32150,7 @@
       </c>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="209" spans="1:10" ht="15" thickBot="1">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -32181,7 +32180,7 @@
       </c>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="210" spans="1:10" ht="15" thickBot="1">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -32211,7 +32210,7 @@
       </c>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="211" spans="1:10" ht="15" thickBot="1">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -32241,7 +32240,7 @@
       </c>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="212" spans="1:10" ht="15" thickBot="1">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -32271,7 +32270,7 @@
       </c>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="213" spans="1:10" ht="15" thickBot="1">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -32301,7 +32300,7 @@
       </c>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="214" spans="1:10" ht="15" thickBot="1">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -32331,7 +32330,7 @@
       </c>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="215" spans="1:10" ht="15" thickBot="1">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -32361,7 +32360,7 @@
       </c>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="216" spans="1:10" ht="15" thickBot="1">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -32391,7 +32390,7 @@
       </c>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="217" spans="1:10" ht="15" thickBot="1">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -32421,7 +32420,7 @@
       </c>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="218" spans="1:10" ht="15" thickBot="1">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -32451,7 +32450,7 @@
       </c>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="219" spans="1:10" ht="15" thickBot="1">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -32481,7 +32480,7 @@
       </c>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="220" spans="1:10" ht="15" thickBot="1">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -32511,7 +32510,7 @@
       </c>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="221" spans="1:10" ht="15" thickBot="1">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -32541,7 +32540,7 @@
       </c>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="222" spans="1:10" ht="15" thickBot="1">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -32571,7 +32570,7 @@
       </c>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="223" spans="1:10" ht="15" thickBot="1">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -32601,7 +32600,7 @@
       </c>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="224" spans="1:10" ht="15" thickBot="1">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -32631,7 +32630,7 @@
       </c>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="225" spans="1:10" ht="15" thickBot="1">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -32661,7 +32660,7 @@
       </c>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="226" spans="1:10" ht="15" thickBot="1">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -32691,7 +32690,7 @@
       </c>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="227" spans="1:10" ht="15" thickBot="1">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -32721,7 +32720,7 @@
       </c>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="228" spans="1:10" ht="15" thickBot="1">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -32751,7 +32750,7 @@
       </c>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="229" spans="1:10" ht="15" thickBot="1">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -32781,7 +32780,7 @@
       </c>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="230" spans="1:10" ht="15" thickBot="1">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -32811,7 +32810,7 @@
       </c>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="231" spans="1:10" ht="15" thickBot="1">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -32841,7 +32840,7 @@
       </c>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="232" spans="1:10" ht="15" thickBot="1">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -32871,7 +32870,7 @@
       </c>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="233" spans="1:10" ht="15" thickBot="1">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -32901,7 +32900,7 @@
       </c>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="234" spans="1:10" ht="15" thickBot="1">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -32931,7 +32930,7 @@
       </c>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="235" spans="1:10" ht="15" thickBot="1">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -32961,7 +32960,7 @@
       </c>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="236" spans="1:10" ht="15" thickBot="1">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -32991,7 +32990,7 @@
       </c>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="237" spans="1:10" ht="15" thickBot="1">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -33021,7 +33020,7 @@
       </c>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="238" spans="1:10" ht="15" thickBot="1">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -33051,7 +33050,7 @@
       </c>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="239" spans="1:10" ht="15" thickBot="1">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -33081,7 +33080,7 @@
       </c>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="240" spans="1:10" ht="15" thickBot="1">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -33111,7 +33110,7 @@
       </c>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="241" spans="1:10" ht="15" thickBot="1">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -33141,7 +33140,7 @@
       </c>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="242" spans="1:10" ht="15" thickBot="1">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -33171,7 +33170,7 @@
       </c>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="243" spans="1:10" ht="15" thickBot="1">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -33201,7 +33200,7 @@
       </c>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="244" spans="1:10" ht="15" thickBot="1">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -33231,7 +33230,7 @@
       </c>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="245" spans="1:10" ht="15" thickBot="1">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -33261,7 +33260,7 @@
       </c>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="246" spans="1:10" ht="15" thickBot="1">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -33291,7 +33290,7 @@
       </c>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="247" spans="1:10" ht="15" thickBot="1">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -33321,7 +33320,7 @@
       </c>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="248" spans="1:10" ht="15" thickBot="1">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -33351,7 +33350,7 @@
       </c>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="249" spans="1:10" ht="15" thickBot="1">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -33381,7 +33380,7 @@
       </c>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="250" spans="1:10" ht="15" thickBot="1">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -33411,7 +33410,7 @@
       </c>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="251" spans="1:10" ht="15" thickBot="1">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -33441,7 +33440,7 @@
       </c>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="252" spans="1:10" ht="15" thickBot="1">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -33471,7 +33470,7 @@
       </c>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="253" spans="1:10" ht="15" thickBot="1">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -33501,7 +33500,7 @@
       </c>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="254" spans="1:10" ht="15" thickBot="1">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -33531,7 +33530,7 @@
       </c>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="255" spans="1:10" ht="15" thickBot="1">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -33561,7 +33560,7 @@
       </c>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="256" spans="1:10" ht="15" thickBot="1">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -33591,7 +33590,7 @@
       </c>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="257" spans="1:10" ht="15" thickBot="1">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -33621,7 +33620,7 @@
       </c>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="258" spans="1:10" ht="15" thickBot="1">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -33651,7 +33650,7 @@
       </c>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="259" spans="1:10" ht="15" thickBot="1">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -33681,7 +33680,7 @@
       </c>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="260" spans="1:10" ht="15" thickBot="1">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -33711,7 +33710,7 @@
       </c>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="261" spans="1:10" ht="15" thickBot="1">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -33741,7 +33740,7 @@
       </c>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="262" spans="1:10" ht="15" thickBot="1">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -33771,7 +33770,7 @@
       </c>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="263" spans="1:10" ht="15" thickBot="1">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -33801,7 +33800,7 @@
       </c>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="264" spans="1:10" ht="15" thickBot="1">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -33831,7 +33830,7 @@
       </c>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="265" spans="1:10" ht="15" thickBot="1">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -33861,7 +33860,7 @@
       </c>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="266" spans="1:10" ht="15" thickBot="1">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -33891,7 +33890,7 @@
       </c>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="267" spans="1:10" ht="15" thickBot="1">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -33921,7 +33920,7 @@
       </c>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="268" spans="1:10" ht="15" thickBot="1">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -33951,7 +33950,7 @@
       </c>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="269" spans="1:10" ht="15" thickBot="1">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -33981,7 +33980,7 @@
       </c>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="270" spans="1:10" ht="15" thickBot="1">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -34011,7 +34010,7 @@
       </c>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="271" spans="1:10" ht="15" thickBot="1">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -34041,7 +34040,7 @@
       </c>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="272" spans="1:10" ht="15" thickBot="1">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -34071,7 +34070,7 @@
       </c>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="273" spans="1:10" ht="15" thickBot="1">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -34101,7 +34100,7 @@
       </c>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="274" spans="1:10" ht="15" thickBot="1">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -34131,7 +34130,7 @@
       </c>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="275" spans="1:10" ht="15" thickBot="1">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -34161,7 +34160,7 @@
       </c>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="276" spans="1:10" ht="15" thickBot="1">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -34191,7 +34190,7 @@
       </c>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="277" spans="1:10" ht="15" thickBot="1">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -34221,7 +34220,7 @@
       </c>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="278" spans="1:10" ht="15" thickBot="1">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -34251,7 +34250,7 @@
       </c>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="279" spans="1:10" ht="15" thickBot="1">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -34281,7 +34280,7 @@
       </c>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="280" spans="1:10" ht="15" thickBot="1">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -34311,7 +34310,7 @@
       </c>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="281" spans="1:10" ht="15" thickBot="1">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -34341,7 +34340,7 @@
       </c>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="282" spans="1:10" ht="15" thickBot="1">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -34371,7 +34370,7 @@
       </c>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="283" spans="1:10" ht="15" thickBot="1">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -34401,7 +34400,7 @@
       </c>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="284" spans="1:10" ht="15" thickBot="1">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -34431,7 +34430,7 @@
       </c>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="285" spans="1:10" ht="15" thickBot="1">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -34461,7 +34460,7 @@
       </c>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="286" spans="1:10" ht="15" thickBot="1">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -34491,7 +34490,7 @@
       </c>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="287" spans="1:10" ht="15" thickBot="1">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -34521,7 +34520,7 @@
       </c>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="288" spans="1:10" ht="15" thickBot="1">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -34551,7 +34550,7 @@
       </c>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="289" spans="1:10" ht="15" thickBot="1">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -34581,7 +34580,7 @@
       </c>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="290" spans="1:10" ht="15" thickBot="1">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -34611,7 +34610,7 @@
       </c>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="291" spans="1:10" ht="15" thickBot="1">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -34641,7 +34640,7 @@
       </c>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="292" spans="1:10" ht="15" thickBot="1">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -34671,7 +34670,7 @@
       </c>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="293" spans="1:10" ht="15" thickBot="1">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -34701,7 +34700,7 @@
       </c>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="294" spans="1:10" ht="15" thickBot="1">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -34731,7 +34730,7 @@
       </c>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="295" spans="1:10" ht="15" thickBot="1">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -34761,7 +34760,7 @@
       </c>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="296" spans="1:10" ht="15" thickBot="1">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -34791,7 +34790,7 @@
       </c>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="297" spans="1:10" ht="15" thickBot="1">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -34821,7 +34820,7 @@
       </c>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="298" spans="1:10" ht="15" thickBot="1">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -34851,7 +34850,7 @@
       </c>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="299" spans="1:10" ht="15" thickBot="1">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -34881,7 +34880,7 @@
       </c>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="300" spans="1:10" ht="15" thickBot="1">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -34911,7 +34910,7 @@
       </c>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="301" spans="1:10" ht="15" thickBot="1">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -34941,7 +34940,7 @@
       </c>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="302" spans="1:10" ht="15" thickBot="1">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -34971,7 +34970,7 @@
       </c>
       <c r="J302" s="6"/>
     </row>
-    <row r="303" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="303" spans="1:10" ht="15" thickBot="1">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -35001,7 +35000,7 @@
       </c>
       <c r="J303" s="6"/>
     </row>
-    <row r="304" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="304" spans="1:10" ht="15" thickBot="1">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -35031,7 +35030,7 @@
       </c>
       <c r="J304" s="6"/>
     </row>
-    <row r="305" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="305" spans="1:10" ht="15" thickBot="1">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -35061,7 +35060,7 @@
       </c>
       <c r="J305" s="6"/>
     </row>
-    <row r="306" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="306" spans="1:10" ht="15" thickBot="1">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -35091,7 +35090,7 @@
       </c>
       <c r="J306" s="6"/>
     </row>
-    <row r="307" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="307" spans="1:10" ht="15" thickBot="1">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -35121,7 +35120,7 @@
       </c>
       <c r="J307" s="6"/>
     </row>
-    <row r="308" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="308" spans="1:10" ht="15" thickBot="1">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -35151,7 +35150,7 @@
       </c>
       <c r="J308" s="6"/>
     </row>
-    <row r="309" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="309" spans="1:10" ht="15" thickBot="1">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -35181,7 +35180,7 @@
       </c>
       <c r="J309" s="6"/>
     </row>
-    <row r="310" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="310" spans="1:10" ht="15" thickBot="1">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -35211,7 +35210,7 @@
       </c>
       <c r="J310" s="6"/>
     </row>
-    <row r="311" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="311" spans="1:10" ht="15" thickBot="1">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -35241,7 +35240,7 @@
       </c>
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="312" spans="1:10" ht="15" thickBot="1">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -35271,7 +35270,7 @@
       </c>
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="313" spans="1:10" ht="15" thickBot="1">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -35301,7 +35300,7 @@
       </c>
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="314" spans="1:10" ht="15" thickBot="1">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -35331,7 +35330,7 @@
       </c>
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="315" spans="1:10" ht="15" thickBot="1">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -35361,7 +35360,7 @@
       </c>
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="316" spans="1:10" ht="15" thickBot="1">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -35391,7 +35390,7 @@
       </c>
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="317" spans="1:10" ht="15" thickBot="1">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -35421,7 +35420,7 @@
       </c>
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="318" spans="1:10" ht="15" thickBot="1">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -35451,7 +35450,7 @@
       </c>
       <c r="J318" s="6"/>
     </row>
-    <row r="319" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="319" spans="1:10" ht="15" thickBot="1">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -35481,7 +35480,7 @@
       </c>
       <c r="J319" s="6"/>
     </row>
-    <row r="320" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="320" spans="1:10" ht="15" thickBot="1">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -35511,7 +35510,7 @@
       </c>
       <c r="J320" s="6"/>
     </row>
-    <row r="321" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="321" spans="1:10" ht="15" thickBot="1">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -35541,7 +35540,7 @@
       </c>
       <c r="J321" s="6"/>
     </row>
-    <row r="322" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="322" spans="1:10" ht="15" thickBot="1">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -35571,7 +35570,7 @@
       </c>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="323" spans="1:10" ht="15" thickBot="1">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -35601,7 +35600,7 @@
       </c>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="324" spans="1:10" ht="15" thickBot="1">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -35631,7 +35630,7 @@
       </c>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="325" spans="1:10" ht="15" thickBot="1">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -35661,7 +35660,7 @@
       </c>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="326" spans="1:10" ht="15" thickBot="1">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -35691,7 +35690,7 @@
       </c>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="327" spans="1:10" ht="15" thickBot="1">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -35721,7 +35720,7 @@
       </c>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="328" spans="1:10" ht="15" thickBot="1">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -35751,7 +35750,7 @@
       </c>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="329" spans="1:10" ht="15" thickBot="1">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -35781,7 +35780,7 @@
       </c>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="330" spans="1:10" ht="15" thickBot="1">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -35811,7 +35810,7 @@
       </c>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="331" spans="1:10" ht="15" thickBot="1">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -35841,7 +35840,7 @@
       </c>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="332" spans="1:10" ht="15" thickBot="1">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -35871,7 +35870,7 @@
       </c>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="333" spans="1:10" ht="15" thickBot="1">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -35901,7 +35900,7 @@
       </c>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="334" spans="1:10" ht="15" thickBot="1">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -35931,7 +35930,7 @@
       </c>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="335" spans="1:10" ht="15" thickBot="1">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -35961,7 +35960,7 @@
       </c>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="336" spans="1:10" ht="15" thickBot="1">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -35991,7 +35990,7 @@
       </c>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="337" spans="1:10" ht="15" thickBot="1">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -36021,7 +36020,7 @@
       </c>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="338" spans="1:10" ht="15" thickBot="1">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -36051,7 +36050,7 @@
       </c>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="339" spans="1:10" ht="15" thickBot="1">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -36081,7 +36080,7 @@
       </c>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="340" spans="1:10" ht="15" thickBot="1">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -36111,7 +36110,7 @@
       </c>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="341" spans="1:10" ht="15" thickBot="1">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -36141,7 +36140,7 @@
       </c>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="342" spans="1:10" ht="15" thickBot="1">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -36171,7 +36170,7 @@
       </c>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="343" spans="1:10" ht="15" thickBot="1">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -36201,7 +36200,7 @@
       </c>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="344" spans="1:10" ht="15" thickBot="1">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -36231,7 +36230,7 @@
       </c>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="345" spans="1:10" ht="15" thickBot="1">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -36261,7 +36260,7 @@
       </c>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="346" spans="1:10" ht="15" thickBot="1">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -36291,7 +36290,7 @@
       </c>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="347" spans="1:10" ht="15" thickBot="1">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -36321,7 +36320,7 @@
       </c>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="348" spans="1:10" ht="15" thickBot="1">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -36351,7 +36350,7 @@
       </c>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="349" spans="1:10" ht="15" thickBot="1">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -36381,7 +36380,7 @@
       </c>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="350" spans="1:10" ht="15" thickBot="1">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -36411,7 +36410,7 @@
       </c>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="351" spans="1:10" ht="15" thickBot="1">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -36441,7 +36440,7 @@
       </c>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="352" spans="1:10" ht="15" thickBot="1">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -36471,7 +36470,7 @@
       </c>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="353" spans="1:10" ht="15" thickBot="1">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -36501,7 +36500,7 @@
       </c>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="354" spans="1:10" ht="15" thickBot="1">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -36531,7 +36530,7 @@
       </c>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="355" spans="1:10" ht="15" thickBot="1">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -36561,7 +36560,7 @@
       </c>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="356" spans="1:10" ht="15" thickBot="1">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -36591,7 +36590,7 @@
       </c>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="357" spans="1:10" ht="15" thickBot="1">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -36621,7 +36620,7 @@
       </c>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="358" spans="1:10" ht="15" thickBot="1">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -36651,7 +36650,7 @@
       </c>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="359" spans="1:10" ht="15" thickBot="1">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -36681,7 +36680,7 @@
       </c>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="360" spans="1:10" ht="15" thickBot="1">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -36711,7 +36710,7 @@
       </c>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="361" spans="1:10" ht="15" thickBot="1">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -36741,7 +36740,7 @@
       </c>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="362" spans="1:10" ht="15" thickBot="1">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -36771,7 +36770,7 @@
       </c>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="363" spans="1:10" ht="15" thickBot="1">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -36801,7 +36800,7 @@
       </c>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="364" spans="1:10" ht="15" thickBot="1">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -36831,7 +36830,7 @@
       </c>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="365" spans="1:10" ht="15" thickBot="1">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -36861,7 +36860,7 @@
       </c>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="366" spans="1:10" ht="15" thickBot="1">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -36891,7 +36890,7 @@
       </c>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="367" spans="1:10" ht="15" thickBot="1">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -36921,7 +36920,7 @@
       </c>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="368" spans="1:10" ht="15" thickBot="1">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -36951,7 +36950,7 @@
       </c>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="369" spans="1:10" ht="15" thickBot="1">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -36981,7 +36980,7 @@
       </c>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="370" spans="1:10" ht="15" thickBot="1">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -37011,7 +37010,7 @@
       </c>
       <c r="J370" s="3"/>
     </row>
-    <row r="371" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="371" spans="1:10" ht="15" thickBot="1">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -37041,7 +37040,7 @@
       </c>
       <c r="J371" s="3"/>
     </row>
-    <row r="372" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="372" spans="1:10" ht="15" thickBot="1">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -37071,7 +37070,7 @@
       </c>
       <c r="J372" s="3"/>
     </row>
-    <row r="373" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="373" spans="1:10" ht="15" thickBot="1">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -37101,7 +37100,7 @@
       </c>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="374" spans="1:10" ht="15" thickBot="1">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -37131,7 +37130,7 @@
       </c>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="375" spans="1:10" ht="15" thickBot="1">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -37161,7 +37160,7 @@
       </c>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="376" spans="1:10" ht="15" thickBot="1">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -37191,7 +37190,7 @@
       </c>
       <c r="J376" s="3"/>
     </row>
-    <row r="377" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="377" spans="1:10" ht="15" thickBot="1">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -37221,7 +37220,7 @@
       </c>
       <c r="J377" s="3"/>
     </row>
-    <row r="378" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="378" spans="1:10" ht="15" thickBot="1">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -37251,7 +37250,7 @@
       </c>
       <c r="J378" s="3"/>
     </row>
-    <row r="379" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="379" spans="1:10" ht="15" thickBot="1">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -37281,7 +37280,7 @@
       </c>
       <c r="J379" s="3"/>
     </row>
-    <row r="380" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="380" spans="1:10" ht="15" thickBot="1">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -37311,7 +37310,7 @@
       </c>
       <c r="J380" s="3"/>
     </row>
-    <row r="381" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="381" spans="1:10" ht="15" thickBot="1">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -37341,7 +37340,7 @@
       </c>
       <c r="J381" s="3"/>
     </row>
-    <row r="382" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="382" spans="1:10" ht="15" thickBot="1">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -37371,7 +37370,7 @@
       </c>
       <c r="J382" s="3"/>
     </row>
-    <row r="383" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="383" spans="1:10" ht="15" thickBot="1">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -37401,7 +37400,7 @@
       </c>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="384" spans="1:10" ht="15" thickBot="1">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -37431,7 +37430,7 @@
       </c>
       <c r="J384" s="3"/>
     </row>
-    <row r="385" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="385" spans="1:10" ht="15" thickBot="1">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -37461,7 +37460,7 @@
       </c>
       <c r="J385" s="3"/>
     </row>
-    <row r="386" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="386" spans="1:10" ht="15" thickBot="1">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -37491,7 +37490,7 @@
       </c>
       <c r="J386" s="3"/>
     </row>
-    <row r="387" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="387" spans="1:10" ht="15" thickBot="1">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -37521,7 +37520,7 @@
       </c>
       <c r="J387" s="3"/>
     </row>
-    <row r="388" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="388" spans="1:10" ht="15" thickBot="1">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -37551,7 +37550,7 @@
       </c>
       <c r="J388" s="3"/>
     </row>
-    <row r="389" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="389" spans="1:10" ht="15" thickBot="1">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -37581,7 +37580,7 @@
       </c>
       <c r="J389" s="3"/>
     </row>
-    <row r="390" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="390" spans="1:10" ht="15" thickBot="1">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -37611,7 +37610,7 @@
       </c>
       <c r="J390" s="3"/>
     </row>
-    <row r="391" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="391" spans="1:10" ht="15" thickBot="1">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -37641,7 +37640,7 @@
       </c>
       <c r="J391" s="3"/>
     </row>
-    <row r="392" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="392" spans="1:10" ht="15" thickBot="1">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -37671,7 +37670,7 @@
       </c>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="393" spans="1:10" ht="15" thickBot="1">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -37701,7 +37700,7 @@
       </c>
       <c r="J393" s="3"/>
     </row>
-    <row r="394" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="394" spans="1:10" ht="15" thickBot="1">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -37731,7 +37730,7 @@
       </c>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="395" spans="1:10" ht="15" thickBot="1">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -37761,7 +37760,7 @@
       </c>
       <c r="J395" s="3"/>
     </row>
-    <row r="396" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="396" spans="1:10" ht="15" thickBot="1">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -37791,7 +37790,7 @@
       </c>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="397" spans="1:10" ht="15" thickBot="1">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -37821,7 +37820,7 @@
       </c>
       <c r="J397" s="3"/>
     </row>
-    <row r="398" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="398" spans="1:10" ht="15" thickBot="1">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -37851,7 +37850,7 @@
       </c>
       <c r="J398" s="3"/>
     </row>
-    <row r="399" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="399" spans="1:10" ht="15" thickBot="1">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -37881,7 +37880,7 @@
       </c>
       <c r="J399" s="3"/>
     </row>
-    <row r="400" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="400" spans="1:10" ht="15" thickBot="1">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -37911,7 +37910,7 @@
       </c>
       <c r="J400" s="3"/>
     </row>
-    <row r="401" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="401" spans="1:10" ht="15" thickBot="1">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -37941,7 +37940,7 @@
       </c>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="402" spans="1:10" ht="15" thickBot="1">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -37971,7 +37970,7 @@
       </c>
       <c r="J402" s="3"/>
     </row>
-    <row r="403" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="403" spans="1:10" ht="15" thickBot="1">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -38001,7 +38000,7 @@
       </c>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="404" spans="1:10" ht="15" thickBot="1">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -38031,7 +38030,7 @@
       </c>
       <c r="J404" s="3"/>
     </row>
-    <row r="405" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="405" spans="1:10" ht="15" thickBot="1">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -38061,7 +38060,7 @@
       </c>
       <c r="J405" s="3"/>
     </row>
-    <row r="406" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="406" spans="1:10" ht="15" thickBot="1">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -38091,7 +38090,7 @@
       </c>
       <c r="J406" s="3"/>
     </row>
-    <row r="407" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="407" spans="1:10" ht="15" thickBot="1">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -38121,7 +38120,7 @@
       </c>
       <c r="J407" s="3"/>
     </row>
-    <row r="408" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="408" spans="1:10" ht="15" thickBot="1">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -38151,7 +38150,7 @@
       </c>
       <c r="J408" s="3"/>
     </row>
-    <row r="409" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="409" spans="1:10" ht="15" thickBot="1">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -38181,7 +38180,7 @@
       </c>
       <c r="J409" s="3"/>
     </row>
-    <row r="410" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="410" spans="1:10" ht="15" thickBot="1">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -38211,7 +38210,7 @@
       </c>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="411" spans="1:10" ht="15" thickBot="1">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -38241,7 +38240,7 @@
       </c>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="412" spans="1:10" ht="15" thickBot="1">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -38271,7 +38270,7 @@
       </c>
       <c r="J412" s="3"/>
     </row>
-    <row r="413" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="413" spans="1:10" ht="15" thickBot="1">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -38301,7 +38300,7 @@
       </c>
       <c r="J413" s="3"/>
     </row>
-    <row r="414" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="414" spans="1:10" ht="15" thickBot="1">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -38331,7 +38330,7 @@
       </c>
       <c r="J414" s="3"/>
     </row>
-    <row r="415" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="415" spans="1:10" ht="15" thickBot="1">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -38361,7 +38360,7 @@
       </c>
       <c r="J415" s="3"/>
     </row>
-    <row r="416" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="416" spans="1:10" ht="15" thickBot="1">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -38391,7 +38390,7 @@
       </c>
       <c r="J416" s="3"/>
     </row>
-    <row r="417" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="417" spans="1:10" ht="15" thickBot="1">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -38421,7 +38420,7 @@
       </c>
       <c r="J417" s="3"/>
     </row>
-    <row r="418" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="418" spans="1:10" ht="15" thickBot="1">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -38451,7 +38450,7 @@
       </c>
       <c r="J418" s="3"/>
     </row>
-    <row r="419" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="419" spans="1:10" ht="15" thickBot="1">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -38481,7 +38480,7 @@
       </c>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="420" spans="1:10" ht="15" thickBot="1">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -38511,7 +38510,7 @@
       </c>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="421" spans="1:10" ht="15" thickBot="1">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -38541,7 +38540,7 @@
       </c>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="422" spans="1:10" ht="15" thickBot="1">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -38571,7 +38570,7 @@
       </c>
       <c r="J422" s="3"/>
     </row>
-    <row r="423" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="423" spans="1:10" ht="15" thickBot="1">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -38601,7 +38600,7 @@
       </c>
       <c r="J423" s="3"/>
     </row>
-    <row r="424" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="424" spans="1:10" ht="15" thickBot="1">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -38631,7 +38630,7 @@
       </c>
       <c r="J424" s="3"/>
     </row>
-    <row r="425" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="425" spans="1:10" ht="15" thickBot="1">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -38661,7 +38660,7 @@
       </c>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="426" spans="1:10" ht="15" thickBot="1">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -38691,7 +38690,7 @@
       </c>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="427" spans="1:10" ht="15" thickBot="1">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -38721,7 +38720,7 @@
       </c>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="428" spans="1:10" ht="15" thickBot="1">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -38751,7 +38750,7 @@
       </c>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="429" spans="1:10" ht="15" thickBot="1">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -38781,7 +38780,7 @@
       </c>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="430" spans="1:10" ht="15" thickBot="1">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -38811,7 +38810,7 @@
       </c>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="431" spans="1:10" ht="15" thickBot="1">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -38841,7 +38840,7 @@
       </c>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="432" spans="1:10" ht="15" thickBot="1">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -38871,7 +38870,7 @@
       </c>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="433" spans="1:10" ht="15" thickBot="1">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -38901,7 +38900,7 @@
       </c>
       <c r="J433" s="3"/>
     </row>
-    <row r="434" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="434" spans="1:10" ht="15" thickBot="1">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -38931,7 +38930,7 @@
       </c>
       <c r="J434" s="3"/>
     </row>
-    <row r="435" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="435" spans="1:10" ht="15" thickBot="1">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -38961,7 +38960,7 @@
       </c>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="436" spans="1:10" ht="15" thickBot="1">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -38991,7 +38990,7 @@
       </c>
       <c r="J436" s="3"/>
     </row>
-    <row r="437" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="437" spans="1:10" ht="15" thickBot="1">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -39021,7 +39020,7 @@
       </c>
       <c r="J437" s="3"/>
     </row>
-    <row r="438" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="438" spans="1:10" ht="15" thickBot="1">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -39051,7 +39050,7 @@
       </c>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="439" spans="1:10" ht="15" thickBot="1">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -39081,7 +39080,7 @@
       </c>
       <c r="J439" s="3"/>
     </row>
-    <row r="440" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="440" spans="1:10" ht="15" thickBot="1">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -39111,7 +39110,7 @@
       </c>
       <c r="J440" s="3"/>
     </row>
-    <row r="441" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="441" spans="1:10" ht="15" thickBot="1">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -39141,7 +39140,7 @@
       </c>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="442" spans="1:10" ht="15" thickBot="1">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -39171,7 +39170,7 @@
       </c>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="443" spans="1:10" ht="15" thickBot="1">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -39201,7 +39200,7 @@
       </c>
       <c r="J443" s="3"/>
     </row>
-    <row r="444" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="444" spans="1:10" ht="15" thickBot="1">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -39231,7 +39230,7 @@
       </c>
       <c r="J444" s="3"/>
     </row>
-    <row r="445" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="445" spans="1:10" ht="15" thickBot="1">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -39261,7 +39260,7 @@
       </c>
       <c r="J445" s="3"/>
     </row>
-    <row r="446" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="446" spans="1:10" ht="15" thickBot="1">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -39291,7 +39290,7 @@
       </c>
       <c r="J446" s="3"/>
     </row>
-    <row r="447" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="447" spans="1:10" ht="15" thickBot="1">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -39321,7 +39320,7 @@
       </c>
       <c r="J447" s="3"/>
     </row>
-    <row r="448" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="448" spans="1:10" ht="15" thickBot="1">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -39351,7 +39350,7 @@
       </c>
       <c r="J448" s="3"/>
     </row>
-    <row r="449" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="449" spans="1:10" ht="15" thickBot="1">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -39381,7 +39380,7 @@
       </c>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="450" spans="1:10" ht="15" thickBot="1">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -39411,7 +39410,7 @@
       </c>
       <c r="J450" s="3"/>
     </row>
-    <row r="451" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="451" spans="1:10" ht="15" thickBot="1">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -39441,7 +39440,7 @@
       </c>
       <c r="J451" s="3"/>
     </row>
-    <row r="452" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="452" spans="1:10" ht="15" thickBot="1">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -39471,7 +39470,7 @@
       </c>
       <c r="J452" s="3"/>
     </row>
-    <row r="453" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="453" spans="1:10" ht="15" thickBot="1">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -39501,7 +39500,7 @@
       </c>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="454" spans="1:10" ht="15" thickBot="1">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -39531,7 +39530,7 @@
       </c>
       <c r="J454" s="3"/>
     </row>
-    <row r="455" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="455" spans="1:10" ht="15" thickBot="1">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -39561,7 +39560,7 @@
       </c>
       <c r="J455" s="3"/>
     </row>
-    <row r="456" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="456" spans="1:10" ht="15" thickBot="1">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -39591,7 +39590,7 @@
       </c>
       <c r="J456" s="3"/>
     </row>
-    <row r="457" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="457" spans="1:10" ht="15" thickBot="1">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -39621,7 +39620,7 @@
       </c>
       <c r="J457" s="3"/>
     </row>
-    <row r="458" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="458" spans="1:10" ht="15" thickBot="1">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -39651,7 +39650,7 @@
       </c>
       <c r="J458" s="3"/>
     </row>
-    <row r="459" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="459" spans="1:10" ht="15" thickBot="1">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -39681,7 +39680,7 @@
       </c>
       <c r="J459" s="3"/>
     </row>
-    <row r="460" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="460" spans="1:10" ht="15" thickBot="1">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -39711,7 +39710,7 @@
       </c>
       <c r="J460" s="3"/>
     </row>
-    <row r="461" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="461" spans="1:10" ht="15" thickBot="1">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -39741,7 +39740,7 @@
       </c>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="462" spans="1:10" ht="15" thickBot="1">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -39771,7 +39770,7 @@
       </c>
       <c r="J462" s="3"/>
     </row>
-    <row r="463" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="463" spans="1:10" ht="15" thickBot="1">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -39801,7 +39800,7 @@
       </c>
       <c r="J463" s="3"/>
     </row>
-    <row r="464" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="464" spans="1:10" ht="15" thickBot="1">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -39831,7 +39830,7 @@
       </c>
       <c r="J464" s="3"/>
     </row>
-    <row r="465" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="465" spans="1:10" ht="15" thickBot="1">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -39861,7 +39860,7 @@
       </c>
       <c r="J465" s="3"/>
     </row>
-    <row r="466" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="466" spans="1:10" ht="15" thickBot="1">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -39891,7 +39890,7 @@
       </c>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="467" spans="1:10" ht="15" thickBot="1">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -39921,7 +39920,7 @@
       </c>
       <c r="J467" s="3"/>
     </row>
-    <row r="468" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="468" spans="1:10" ht="15" thickBot="1">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -39951,7 +39950,7 @@
       </c>
       <c r="J468" s="3"/>
     </row>
-    <row r="469" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="469" spans="1:10" ht="15" thickBot="1">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -39981,7 +39980,7 @@
       </c>
       <c r="J469" s="3"/>
     </row>
-    <row r="470" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="470" spans="1:10" ht="15" thickBot="1">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -40011,7 +40010,7 @@
       </c>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="471" spans="1:10" ht="15" thickBot="1">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -40041,7 +40040,7 @@
       </c>
       <c r="J471" s="3"/>
     </row>
-    <row r="472" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="472" spans="1:10" ht="15" thickBot="1">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -40071,7 +40070,7 @@
       </c>
       <c r="J472" s="3"/>
     </row>
-    <row r="473" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="473" spans="1:10" ht="15" thickBot="1">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -40101,7 +40100,7 @@
       </c>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="474" spans="1:10" ht="15" thickBot="1">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -40131,7 +40130,7 @@
       </c>
       <c r="J474" s="3"/>
     </row>
-    <row r="475" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="475" spans="1:10" ht="15" thickBot="1">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -40161,7 +40160,7 @@
       </c>
       <c r="J475" s="3"/>
     </row>
-    <row r="476" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="476" spans="1:10" ht="15" thickBot="1">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -40191,7 +40190,7 @@
       </c>
       <c r="J476" s="3"/>
     </row>
-    <row r="477" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="477" spans="1:10" ht="15" thickBot="1">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -40221,7 +40220,7 @@
       </c>
       <c r="J477" s="3"/>
     </row>
-    <row r="478" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="478" spans="1:10" ht="15" thickBot="1">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -40251,7 +40250,7 @@
       </c>
       <c r="J478" s="3"/>
     </row>
-    <row r="479" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="479" spans="1:10" ht="15" thickBot="1">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -40281,7 +40280,7 @@
       </c>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="480" spans="1:10" ht="15" thickBot="1">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -40311,7 +40310,7 @@
       </c>
       <c r="J480" s="3"/>
     </row>
-    <row r="481" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="481" spans="1:10" ht="15" thickBot="1">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -40341,7 +40340,7 @@
       </c>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="482" spans="1:10" ht="15" thickBot="1">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -40371,7 +40370,7 @@
       </c>
       <c r="J482" s="3"/>
     </row>
-    <row r="483" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="483" spans="1:10" ht="15" thickBot="1">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -40401,7 +40400,7 @@
       </c>
       <c r="J483" s="3"/>
     </row>
-    <row r="484" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="484" spans="1:10" ht="15" thickBot="1">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -40431,7 +40430,7 @@
       </c>
       <c r="J484" s="3"/>
     </row>
-    <row r="485" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="485" spans="1:10" ht="15" thickBot="1">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -40461,7 +40460,7 @@
       </c>
       <c r="J485" s="3"/>
     </row>
-    <row r="486" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="486" spans="1:10" ht="15" thickBot="1">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -40491,7 +40490,7 @@
       </c>
       <c r="J486" s="3"/>
     </row>
-    <row r="487" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="487" spans="1:10" ht="15" thickBot="1">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -40521,7 +40520,7 @@
       </c>
       <c r="J487" s="3"/>
     </row>
-    <row r="488" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="488" spans="1:10" ht="15" thickBot="1">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -40551,7 +40550,7 @@
       </c>
       <c r="J488" s="3"/>
     </row>
-    <row r="489" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="489" spans="1:10" ht="15" thickBot="1">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -40581,7 +40580,7 @@
       </c>
       <c r="J489" s="3"/>
     </row>
-    <row r="490" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="490" spans="1:10" ht="15" thickBot="1">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -40611,7 +40610,7 @@
       </c>
       <c r="J490" s="3"/>
     </row>
-    <row r="491" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="491" spans="1:10" ht="15" thickBot="1">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -40641,7 +40640,7 @@
       </c>
       <c r="J491" s="3"/>
     </row>
-    <row r="492" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="492" spans="1:10" ht="15" thickBot="1">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -40671,7 +40670,7 @@
       </c>
       <c r="J492" s="3"/>
     </row>
-    <row r="493" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="493" spans="1:10" ht="15" thickBot="1">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -40701,7 +40700,7 @@
       </c>
       <c r="J493" s="3"/>
     </row>
-    <row r="494" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="494" spans="1:10" ht="15" thickBot="1">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -40731,7 +40730,7 @@
       </c>
       <c r="J494" s="3"/>
     </row>
-    <row r="495" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="495" spans="1:10" ht="15" thickBot="1">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -40761,7 +40760,7 @@
       </c>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="496" spans="1:10" ht="15" thickBot="1">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -40791,7 +40790,7 @@
       </c>
       <c r="J496" s="3"/>
     </row>
-    <row r="497" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="497" spans="1:10" ht="15" thickBot="1">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -40821,7 +40820,7 @@
       </c>
       <c r="J497" s="3"/>
     </row>
-    <row r="498" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="498" spans="1:10" ht="15" thickBot="1">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -40851,7 +40850,7 @@
       </c>
       <c r="J498" s="3"/>
     </row>
-    <row r="499" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="499" spans="1:10" ht="15" thickBot="1">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -40881,7 +40880,7 @@
       </c>
       <c r="J499" s="3"/>
     </row>
-    <row r="500" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="500" spans="1:10" ht="15" thickBot="1">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -40911,7 +40910,7 @@
       </c>
       <c r="J500" s="3"/>
     </row>
-    <row r="501" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="501" spans="1:10" ht="15" thickBot="1">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -40941,7 +40940,7 @@
       </c>
       <c r="J501" s="3"/>
     </row>
-    <row r="502" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="502" spans="1:10" ht="15" thickBot="1">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -40971,7 +40970,7 @@
       </c>
       <c r="J502" s="3"/>
     </row>
-    <row r="503" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="503" spans="1:10" ht="15" thickBot="1">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -41001,7 +41000,7 @@
       </c>
       <c r="J503" s="3"/>
     </row>
-    <row r="504" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="504" spans="1:10" ht="15" thickBot="1">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -41031,7 +41030,7 @@
       </c>
       <c r="J504" s="3"/>
     </row>
-    <row r="505" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="505" spans="1:10" ht="15" thickBot="1">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -41061,7 +41060,7 @@
       </c>
       <c r="J505" s="3"/>
     </row>
-    <row r="506" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="506" spans="1:10" ht="15" thickBot="1">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -41091,7 +41090,7 @@
       </c>
       <c r="J506" s="3"/>
     </row>
-    <row r="507" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="507" spans="1:10" ht="15" thickBot="1">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -41121,7 +41120,7 @@
       </c>
       <c r="J507" s="3"/>
     </row>
-    <row r="508" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="508" spans="1:10" ht="15" thickBot="1">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -41151,7 +41150,7 @@
       </c>
       <c r="J508" s="3"/>
     </row>
-    <row r="509" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="509" spans="1:10" ht="15" thickBot="1">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -41181,7 +41180,7 @@
       </c>
       <c r="J509" s="3"/>
     </row>
-    <row r="510" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="510" spans="1:10" ht="15" thickBot="1">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -41211,7 +41210,7 @@
       </c>
       <c r="J510" s="3"/>
     </row>
-    <row r="511" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="511" spans="1:10" ht="15" thickBot="1">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -41241,7 +41240,7 @@
       </c>
       <c r="J511" s="3"/>
     </row>
-    <row r="512" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="512" spans="1:10" ht="15" thickBot="1">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -41271,7 +41270,7 @@
       </c>
       <c r="J512" s="3"/>
     </row>
-    <row r="513" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="513" spans="1:10" ht="15" thickBot="1">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -41301,7 +41300,7 @@
       </c>
       <c r="J513" s="3"/>
     </row>
-    <row r="514" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="514" spans="1:10" ht="15" thickBot="1">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -41331,7 +41330,7 @@
       </c>
       <c r="J514" s="3"/>
     </row>
-    <row r="515" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="515" spans="1:10" ht="15" thickBot="1">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -41361,7 +41360,7 @@
       </c>
       <c r="J515" s="3"/>
     </row>
-    <row r="516" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="516" spans="1:10" ht="15" thickBot="1">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -41391,7 +41390,7 @@
       </c>
       <c r="J516" s="3"/>
     </row>
-    <row r="517" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="517" spans="1:10" ht="15" thickBot="1">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -41421,7 +41420,7 @@
       </c>
       <c r="J517" s="3"/>
     </row>
-    <row r="518" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="518" spans="1:10" ht="15" thickBot="1">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -41451,7 +41450,7 @@
       </c>
       <c r="J518" s="3"/>
     </row>
-    <row r="519" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="519" spans="1:10" ht="15" thickBot="1">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -41481,7 +41480,7 @@
       </c>
       <c r="J519" s="3"/>
     </row>
-    <row r="520" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="520" spans="1:10" ht="15" thickBot="1">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -41511,7 +41510,7 @@
       </c>
       <c r="J520" s="3"/>
     </row>
-    <row r="521" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="521" spans="1:10" ht="15" thickBot="1">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -41541,7 +41540,7 @@
       </c>
       <c r="J521" s="3"/>
     </row>
-    <row r="522" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="522" spans="1:10" ht="15" thickBot="1">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -41571,7 +41570,7 @@
       </c>
       <c r="J522" s="3"/>
     </row>
-    <row r="523" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="523" spans="1:10" ht="15" thickBot="1">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -41601,7 +41600,7 @@
       </c>
       <c r="J523" s="3"/>
     </row>
-    <row r="524" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="524" spans="1:10" ht="15" thickBot="1">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -41631,7 +41630,7 @@
       </c>
       <c r="J524" s="3"/>
     </row>
-    <row r="525" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="525" spans="1:10" ht="15" thickBot="1">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -41661,7 +41660,7 @@
       </c>
       <c r="J525" s="3"/>
     </row>
-    <row r="526" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="526" spans="1:10" ht="15" thickBot="1">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -41691,7 +41690,7 @@
       </c>
       <c r="J526" s="3"/>
     </row>
-    <row r="527" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="527" spans="1:10" ht="15" thickBot="1">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -41721,7 +41720,7 @@
       </c>
       <c r="J527" s="3"/>
     </row>
-    <row r="528" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="528" spans="1:10" ht="15" thickBot="1">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -41751,7 +41750,7 @@
       </c>
       <c r="J528" s="3"/>
     </row>
-    <row r="529" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="529" spans="1:10" ht="15" thickBot="1">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -41781,7 +41780,7 @@
       </c>
       <c r="J529" s="3"/>
     </row>
-    <row r="530" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="530" spans="1:10" ht="15" thickBot="1">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -41811,7 +41810,7 @@
       </c>
       <c r="J530" s="3"/>
     </row>
-    <row r="531" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="531" spans="1:10" ht="15" thickBot="1">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -41841,7 +41840,7 @@
       </c>
       <c r="J531" s="3"/>
     </row>
-    <row r="532" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="532" spans="1:10" ht="15" thickBot="1">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -41871,7 +41870,7 @@
       </c>
       <c r="J532" s="3"/>
     </row>
-    <row r="533" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="533" spans="1:10" ht="15" thickBot="1">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -41901,7 +41900,7 @@
       </c>
       <c r="J533" s="3"/>
     </row>
-    <row r="534" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="534" spans="1:10" ht="15" thickBot="1">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -41931,7 +41930,7 @@
       </c>
       <c r="J534" s="3"/>
     </row>
-    <row r="535" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="535" spans="1:10" ht="15" thickBot="1">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -41961,7 +41960,7 @@
       </c>
       <c r="J535" s="3"/>
     </row>
-    <row r="536" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="536" spans="1:10" ht="15" thickBot="1">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -41991,7 +41990,7 @@
       </c>
       <c r="J536" s="3"/>
     </row>
-    <row r="537" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="537" spans="1:10" ht="15" thickBot="1">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -42021,7 +42020,7 @@
       </c>
       <c r="J537" s="3"/>
     </row>
-    <row r="538" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="538" spans="1:10" ht="15" thickBot="1">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -42051,7 +42050,7 @@
       </c>
       <c r="J538" s="3"/>
     </row>
-    <row r="539" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="539" spans="1:10" ht="15" thickBot="1">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -42081,7 +42080,7 @@
       </c>
       <c r="J539" s="3"/>
     </row>
-    <row r="540" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="540" spans="1:10" ht="15" thickBot="1">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -42111,7 +42110,7 @@
       </c>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="541" spans="1:10" ht="15" thickBot="1">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -42141,7 +42140,7 @@
       </c>
       <c r="J541" s="3"/>
     </row>
-    <row r="542" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="542" spans="1:10" ht="15" thickBot="1">
       <c r="A542" s="5">
         <v>541</v>
       </c>
@@ -42171,7 +42170,7 @@
       </c>
       <c r="J542" s="6"/>
     </row>
-    <row r="543" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="543" spans="1:10" ht="15" thickBot="1">
       <c r="A543" s="5">
         <v>542</v>
       </c>
@@ -42201,7 +42200,7 @@
       </c>
       <c r="J543" s="6"/>
     </row>
-    <row r="544" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="544" spans="1:10" ht="15" thickBot="1">
       <c r="A544" s="5">
         <v>543</v>
       </c>
@@ -42231,7 +42230,7 @@
       </c>
       <c r="J544" s="6"/>
     </row>
-    <row r="545" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="545" spans="1:10" ht="15" thickBot="1">
       <c r="A545" s="5">
         <v>544</v>
       </c>
@@ -42261,7 +42260,7 @@
       </c>
       <c r="J545" s="6"/>
     </row>
-    <row r="546" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="546" spans="1:10" ht="15" thickBot="1">
       <c r="A546" s="5">
         <v>545</v>
       </c>
@@ -42291,7 +42290,7 @@
       </c>
       <c r="J546" s="6"/>
     </row>
-    <row r="547" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="547" spans="1:10" ht="15" thickBot="1">
       <c r="A547" s="5">
         <v>546</v>
       </c>
@@ -42321,7 +42320,7 @@
       </c>
       <c r="J547" s="6"/>
     </row>
-    <row r="548" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="548" spans="1:10" ht="15" thickBot="1">
       <c r="A548" s="5">
         <v>547</v>
       </c>
@@ -42351,7 +42350,7 @@
       </c>
       <c r="J548" s="6"/>
     </row>
-    <row r="549" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="549" spans="1:10" ht="15" thickBot="1">
       <c r="A549" s="5">
         <v>548</v>
       </c>
@@ -42381,7 +42380,7 @@
       </c>
       <c r="J549" s="6"/>
     </row>
-    <row r="550" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="550" spans="1:10" ht="15" thickBot="1">
       <c r="A550" s="5">
         <v>549</v>
       </c>
@@ -42411,7 +42410,7 @@
       </c>
       <c r="J550" s="6"/>
     </row>
-    <row r="551" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="551" spans="1:10" ht="15" thickBot="1">
       <c r="A551" s="5">
         <v>550</v>
       </c>
@@ -42441,7 +42440,7 @@
       </c>
       <c r="J551" s="6"/>
     </row>
-    <row r="552" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="552" spans="1:10" ht="15" thickBot="1">
       <c r="A552" s="5">
         <v>551</v>
       </c>
@@ -42471,7 +42470,7 @@
       </c>
       <c r="J552" s="6"/>
     </row>
-    <row r="553" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="553" spans="1:10" ht="15" thickBot="1">
       <c r="A553" s="5">
         <v>552</v>
       </c>
@@ -42501,7 +42500,7 @@
       </c>
       <c r="J553" s="6"/>
     </row>
-    <row r="554" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="554" spans="1:10" ht="15" thickBot="1">
       <c r="A554" s="5">
         <v>553</v>
       </c>
@@ -42531,7 +42530,7 @@
       </c>
       <c r="J554" s="6"/>
     </row>
-    <row r="555" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="555" spans="1:10" ht="15" thickBot="1">
       <c r="A555" s="5">
         <v>554</v>
       </c>
@@ -42561,7 +42560,7 @@
       </c>
       <c r="J555" s="6"/>
     </row>
-    <row r="556" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="556" spans="1:10" ht="15" thickBot="1">
       <c r="A556" s="5">
         <v>555</v>
       </c>
@@ -42591,7 +42590,7 @@
       </c>
       <c r="J556" s="6"/>
     </row>
-    <row r="557" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="557" spans="1:10" ht="15" thickBot="1">
       <c r="A557" s="5">
         <v>556</v>
       </c>
@@ -42621,7 +42620,7 @@
       </c>
       <c r="J557" s="6"/>
     </row>
-    <row r="558" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="558" spans="1:10" ht="15" thickBot="1">
       <c r="A558" s="5">
         <v>557</v>
       </c>
@@ -42651,7 +42650,7 @@
       </c>
       <c r="J558" s="6"/>
     </row>
-    <row r="559" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="559" spans="1:10" ht="15" thickBot="1">
       <c r="A559" s="5">
         <v>558</v>
       </c>
@@ -42681,7 +42680,7 @@
       </c>
       <c r="J559" s="6"/>
     </row>
-    <row r="560" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="560" spans="1:10" ht="15" thickBot="1">
       <c r="A560" s="5">
         <v>559</v>
       </c>
@@ -42711,7 +42710,7 @@
       </c>
       <c r="J560" s="6"/>
     </row>
-    <row r="561" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="561" spans="1:10" ht="15" thickBot="1">
       <c r="A561" s="5">
         <v>560</v>
       </c>
@@ -42741,7 +42740,7 @@
       </c>
       <c r="J561" s="6"/>
     </row>
-    <row r="562" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="562" spans="1:10" ht="15" thickBot="1">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -42771,7 +42770,7 @@
       </c>
       <c r="J562" s="3"/>
     </row>
-    <row r="563" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="563" spans="1:10" ht="15" thickBot="1">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -42801,7 +42800,7 @@
       </c>
       <c r="J563" s="3"/>
     </row>
-    <row r="564" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="564" spans="1:10" ht="15" thickBot="1">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -42831,7 +42830,7 @@
       </c>
       <c r="J564" s="3"/>
     </row>
-    <row r="565" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="565" spans="1:10" ht="15" thickBot="1">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -42861,7 +42860,7 @@
       </c>
       <c r="J565" s="3"/>
     </row>
-    <row r="566" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="566" spans="1:10" ht="15" thickBot="1">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -42891,7 +42890,7 @@
       </c>
       <c r="J566" s="3"/>
     </row>
-    <row r="567" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="567" spans="1:10" ht="15" thickBot="1">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -42921,7 +42920,7 @@
       </c>
       <c r="J567" s="3"/>
     </row>
-    <row r="568" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="568" spans="1:10" ht="15" thickBot="1">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -42951,7 +42950,7 @@
       </c>
       <c r="J568" s="3"/>
     </row>
-    <row r="569" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="569" spans="1:10" ht="15" thickBot="1">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -42981,7 +42980,7 @@
       </c>
       <c r="J569" s="3"/>
     </row>
-    <row r="570" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="570" spans="1:10" ht="15" thickBot="1">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -43011,7 +43010,7 @@
       </c>
       <c r="J570" s="3"/>
     </row>
-    <row r="571" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="571" spans="1:10" ht="15" thickBot="1">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -43041,7 +43040,7 @@
       </c>
       <c r="J571" s="3"/>
     </row>
-    <row r="572" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="572" spans="1:10" ht="15" thickBot="1">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -43071,7 +43070,7 @@
       </c>
       <c r="J572" s="3"/>
     </row>
-    <row r="573" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="573" spans="1:10" ht="15" thickBot="1">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -43101,7 +43100,7 @@
       </c>
       <c r="J573" s="3"/>
     </row>
-    <row r="574" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="574" spans="1:10" ht="15" thickBot="1">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -43131,7 +43130,7 @@
       </c>
       <c r="J574" s="3"/>
     </row>
-    <row r="575" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="575" spans="1:10" ht="15" thickBot="1">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -43161,7 +43160,7 @@
       </c>
       <c r="J575" s="3"/>
     </row>
-    <row r="576" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="576" spans="1:10" ht="15" thickBot="1">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -43191,7 +43190,7 @@
       </c>
       <c r="J576" s="3"/>
     </row>
-    <row r="577" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="577" spans="1:10" ht="15" thickBot="1">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -43221,7 +43220,7 @@
       </c>
       <c r="J577" s="3"/>
     </row>
-    <row r="578" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="578" spans="1:10" ht="15" thickBot="1">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -43251,7 +43250,7 @@
       </c>
       <c r="J578" s="3"/>
     </row>
-    <row r="579" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="579" spans="1:10" ht="15" thickBot="1">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -43281,7 +43280,7 @@
       </c>
       <c r="J579" s="3"/>
     </row>
-    <row r="580" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="580" spans="1:10" ht="15" thickBot="1">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -43311,7 +43310,7 @@
       </c>
       <c r="J580" s="3"/>
     </row>
-    <row r="581" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="581" spans="1:10" ht="15" thickBot="1">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -43341,7 +43340,7 @@
       </c>
       <c r="J581" s="3"/>
     </row>
-    <row r="582" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="582" spans="1:10" ht="15" thickBot="1">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -43371,7 +43370,7 @@
       </c>
       <c r="J582" s="3"/>
     </row>
-    <row r="583" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="583" spans="1:10" ht="15" thickBot="1">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -43401,7 +43400,7 @@
       </c>
       <c r="J583" s="3"/>
     </row>
-    <row r="584" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="584" spans="1:10" ht="15" thickBot="1">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -43431,7 +43430,7 @@
       </c>
       <c r="J584" s="3"/>
     </row>
-    <row r="585" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="585" spans="1:10" ht="15" thickBot="1">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -43461,7 +43460,7 @@
       </c>
       <c r="J585" s="3"/>
     </row>
-    <row r="586" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="586" spans="1:10" ht="15" thickBot="1">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -43491,7 +43490,7 @@
       </c>
       <c r="J586" s="3"/>
     </row>
-    <row r="587" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="587" spans="1:10" ht="15" thickBot="1">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -43521,7 +43520,7 @@
       </c>
       <c r="J587" s="3"/>
     </row>
-    <row r="588" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="588" spans="1:10" ht="15" thickBot="1">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -43551,7 +43550,7 @@
       </c>
       <c r="J588" s="3"/>
     </row>
-    <row r="589" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="589" spans="1:10" ht="15" thickBot="1">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -43581,7 +43580,7 @@
       </c>
       <c r="J589" s="3"/>
     </row>
-    <row r="590" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="590" spans="1:10" ht="15" thickBot="1">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -43611,7 +43610,7 @@
       </c>
       <c r="J590" s="3"/>
     </row>
-    <row r="591" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="591" spans="1:10" ht="15" thickBot="1">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -43641,7 +43640,7 @@
       </c>
       <c r="J591" s="3"/>
     </row>
-    <row r="592" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="592" spans="1:10" ht="15" thickBot="1">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -43671,7 +43670,7 @@
       </c>
       <c r="J592" s="3"/>
     </row>
-    <row r="593" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="593" spans="1:10" ht="15" thickBot="1">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -43701,7 +43700,7 @@
       </c>
       <c r="J593" s="3"/>
     </row>
-    <row r="594" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="594" spans="1:10" ht="15" thickBot="1">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -43731,7 +43730,7 @@
       </c>
       <c r="J594" s="3"/>
     </row>
-    <row r="595" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="595" spans="1:10" ht="15" thickBot="1">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -43761,7 +43760,7 @@
       </c>
       <c r="J595" s="3"/>
     </row>
-    <row r="596" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="596" spans="1:10" ht="15" thickBot="1">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -43791,7 +43790,7 @@
       </c>
       <c r="J596" s="3"/>
     </row>
-    <row r="597" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="597" spans="1:10" ht="15" thickBot="1">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -43821,7 +43820,7 @@
       </c>
       <c r="J597" s="3"/>
     </row>
-    <row r="598" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="598" spans="1:10" ht="15" thickBot="1">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -43851,7 +43850,7 @@
       </c>
       <c r="J598" s="3"/>
     </row>
-    <row r="599" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="599" spans="1:10" ht="15" thickBot="1">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -43881,7 +43880,7 @@
       </c>
       <c r="J599" s="3"/>
     </row>
-    <row r="600" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="600" spans="1:10" ht="15" thickBot="1">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -43911,7 +43910,7 @@
       </c>
       <c r="J600" s="3"/>
     </row>
-    <row r="601" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="601" spans="1:10" ht="15" thickBot="1">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -43941,7 +43940,7 @@
       </c>
       <c r="J601" s="3"/>
     </row>
-    <row r="602" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="602" spans="1:10" ht="15" thickBot="1">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -43971,7 +43970,7 @@
       </c>
       <c r="J602" s="3"/>
     </row>
-    <row r="603" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="603" spans="1:10" ht="15" thickBot="1">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -44001,7 +44000,7 @@
       </c>
       <c r="J603" s="3"/>
     </row>
-    <row r="604" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="604" spans="1:10" ht="15" thickBot="1">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -44031,7 +44030,7 @@
       </c>
       <c r="J604" s="3"/>
     </row>
-    <row r="605" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="605" spans="1:10" ht="15" thickBot="1">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -44061,7 +44060,7 @@
       </c>
       <c r="J605" s="3"/>
     </row>
-    <row r="606" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="606" spans="1:10" ht="15" thickBot="1">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -44091,7 +44090,7 @@
       </c>
       <c r="J606" s="3"/>
     </row>
-    <row r="607" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="607" spans="1:10" ht="15" thickBot="1">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -44121,7 +44120,7 @@
       </c>
       <c r="J607" s="3"/>
     </row>
-    <row r="608" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="608" spans="1:10" ht="15" thickBot="1">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -44151,7 +44150,7 @@
       </c>
       <c r="J608" s="3"/>
     </row>
-    <row r="609" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="609" spans="1:10" ht="15" thickBot="1">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -44181,7 +44180,7 @@
       </c>
       <c r="J609" s="3"/>
     </row>
-    <row r="610" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="610" spans="1:10" ht="15" thickBot="1">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -44211,7 +44210,7 @@
       </c>
       <c r="J610" s="3"/>
     </row>
-    <row r="611" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="611" spans="1:10" ht="15" thickBot="1">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -44241,7 +44240,7 @@
       </c>
       <c r="J611" s="3"/>
     </row>
-    <row r="612" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="612" spans="1:10" ht="15" thickBot="1">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -44271,7 +44270,7 @@
       </c>
       <c r="J612" s="3"/>
     </row>
-    <row r="613" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="613" spans="1:10" ht="15" thickBot="1">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -44301,7 +44300,7 @@
       </c>
       <c r="J613" s="3"/>
     </row>
-    <row r="614" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="614" spans="1:10" ht="15" thickBot="1">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -44331,7 +44330,7 @@
       </c>
       <c r="J614" s="3"/>
     </row>
-    <row r="615" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="615" spans="1:10" ht="15" thickBot="1">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -44361,7 +44360,7 @@
       </c>
       <c r="J615" s="3"/>
     </row>
-    <row r="616" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="616" spans="1:10" ht="15" thickBot="1">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -44391,7 +44390,7 @@
       </c>
       <c r="J616" s="3"/>
     </row>
-    <row r="617" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="617" spans="1:10" ht="15" thickBot="1">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -44421,7 +44420,7 @@
       </c>
       <c r="J617" s="3"/>
     </row>
-    <row r="618" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="618" spans="1:10" ht="15" thickBot="1">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -44451,7 +44450,7 @@
       </c>
       <c r="J618" s="3"/>
     </row>
-    <row r="619" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="619" spans="1:10" ht="15" thickBot="1">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -44481,7 +44480,7 @@
       </c>
       <c r="J619" s="3"/>
     </row>
-    <row r="620" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="620" spans="1:10" ht="15" thickBot="1">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -44511,7 +44510,7 @@
       </c>
       <c r="J620" s="3"/>
     </row>
-    <row r="621" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="621" spans="1:10" ht="15" thickBot="1">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -44541,7 +44540,7 @@
       </c>
       <c r="J621" s="3"/>
     </row>
-    <row r="622" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="622" spans="1:10" ht="15" thickBot="1">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -44571,7 +44570,7 @@
       </c>
       <c r="J622" s="3"/>
     </row>
-    <row r="623" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="623" spans="1:10" ht="15" thickBot="1">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -44601,7 +44600,7 @@
       </c>
       <c r="J623" s="3"/>
     </row>
-    <row r="624" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="624" spans="1:10" ht="15" thickBot="1">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -44631,7 +44630,7 @@
       </c>
       <c r="J624" s="3"/>
     </row>
-    <row r="625" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="625" spans="1:10" ht="15" thickBot="1">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -44661,7 +44660,7 @@
       </c>
       <c r="J625" s="3"/>
     </row>
-    <row r="626" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="626" spans="1:10" ht="15" thickBot="1">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -44691,7 +44690,7 @@
       </c>
       <c r="J626" s="3"/>
     </row>
-    <row r="627" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="627" spans="1:10" ht="15" thickBot="1">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -44721,7 +44720,7 @@
       </c>
       <c r="J627" s="3"/>
     </row>
-    <row r="628" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="628" spans="1:10" ht="15" thickBot="1">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -44751,7 +44750,7 @@
       </c>
       <c r="J628" s="3"/>
     </row>
-    <row r="629" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="629" spans="1:10" ht="15" thickBot="1">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -44781,7 +44780,7 @@
       </c>
       <c r="J629" s="3"/>
     </row>
-    <row r="630" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="630" spans="1:10" ht="15" thickBot="1">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -44811,7 +44810,7 @@
       </c>
       <c r="J630" s="3"/>
     </row>
-    <row r="631" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="631" spans="1:10" ht="15" thickBot="1">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -44841,7 +44840,7 @@
       </c>
       <c r="J631" s="3"/>
     </row>
-    <row r="632" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="632" spans="1:10" ht="15" thickBot="1">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -44871,7 +44870,7 @@
       </c>
       <c r="J632" s="3"/>
     </row>
-    <row r="633" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="633" spans="1:10" ht="15" thickBot="1">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -44901,7 +44900,7 @@
       </c>
       <c r="J633" s="3"/>
     </row>
-    <row r="634" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="634" spans="1:10" ht="15" thickBot="1">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -44931,7 +44930,7 @@
       </c>
       <c r="J634" s="3"/>
     </row>
-    <row r="635" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="635" spans="1:10" ht="15" thickBot="1">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -44961,7 +44960,7 @@
       </c>
       <c r="J635" s="3"/>
     </row>
-    <row r="636" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="636" spans="1:10" ht="15" thickBot="1">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -44991,7 +44990,7 @@
       </c>
       <c r="J636" s="3"/>
     </row>
-    <row r="637" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="637" spans="1:10" ht="15" thickBot="1">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -45021,7 +45020,7 @@
       </c>
       <c r="J637" s="3"/>
     </row>
-    <row r="638" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="638" spans="1:10" ht="15" thickBot="1">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -45051,7 +45050,7 @@
       </c>
       <c r="J638" s="3"/>
     </row>
-    <row r="639" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="639" spans="1:10" ht="15" thickBot="1">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -45081,7 +45080,7 @@
       </c>
       <c r="J639" s="3"/>
     </row>
-    <row r="640" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="640" spans="1:10" ht="15" thickBot="1">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -45111,7 +45110,7 @@
       </c>
       <c r="J640" s="3"/>
     </row>
-    <row r="641" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="641" spans="1:10" ht="15" thickBot="1">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -45141,7 +45140,7 @@
       </c>
       <c r="J641" s="3"/>
     </row>
-    <row r="642" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="642" spans="1:10" ht="15" thickBot="1">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -45171,7 +45170,7 @@
       </c>
       <c r="J642" s="3"/>
     </row>
-    <row r="643" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="643" spans="1:10" ht="15" thickBot="1">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -45201,7 +45200,7 @@
       </c>
       <c r="J643" s="3"/>
     </row>
-    <row r="644" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="644" spans="1:10" ht="15" thickBot="1">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -45231,7 +45230,7 @@
       </c>
       <c r="J644" s="3"/>
     </row>
-    <row r="645" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="645" spans="1:10" ht="15" thickBot="1">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -45261,7 +45260,7 @@
       </c>
       <c r="J645" s="3"/>
     </row>
-    <row r="646" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="646" spans="1:10" ht="15" thickBot="1">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -45291,7 +45290,7 @@
       </c>
       <c r="J646" s="3"/>
     </row>
-    <row r="647" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="647" spans="1:10" ht="15" thickBot="1">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -45321,7 +45320,7 @@
       </c>
       <c r="J647" s="3"/>
     </row>
-    <row r="648" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="648" spans="1:10" ht="15" thickBot="1">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -45351,7 +45350,7 @@
       </c>
       <c r="J648" s="3"/>
     </row>
-    <row r="649" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="649" spans="1:10" ht="15" thickBot="1">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -45381,7 +45380,7 @@
       </c>
       <c r="J649" s="3"/>
     </row>
-    <row r="650" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="650" spans="1:10" ht="15" thickBot="1">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -45411,7 +45410,7 @@
       </c>
       <c r="J650" s="3"/>
     </row>
-    <row r="651" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="651" spans="1:10" ht="15" thickBot="1">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -45441,7 +45440,7 @@
       </c>
       <c r="J651" s="3"/>
     </row>
-    <row r="652" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="652" spans="1:10" ht="15" thickBot="1">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -45471,7 +45470,7 @@
       </c>
       <c r="J652" s="3"/>
     </row>
-    <row r="653" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="653" spans="1:10" ht="15" thickBot="1">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -45501,7 +45500,7 @@
       </c>
       <c r="J653" s="3"/>
     </row>
-    <row r="654" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="654" spans="1:10" ht="15" thickBot="1">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -45531,7 +45530,7 @@
       </c>
       <c r="J654" s="3"/>
     </row>
-    <row r="655" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="655" spans="1:10" ht="15" thickBot="1">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -45561,7 +45560,7 @@
       </c>
       <c r="J655" s="3"/>
     </row>
-    <row r="656" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="656" spans="1:10" ht="15" thickBot="1">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -45591,7 +45590,7 @@
       </c>
       <c r="J656" s="3"/>
     </row>
-    <row r="657" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="657" spans="1:10" ht="15" thickBot="1">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -45621,7 +45620,7 @@
       </c>
       <c r="J657" s="3"/>
     </row>
-    <row r="658" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="658" spans="1:10" ht="15" thickBot="1">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -45651,7 +45650,7 @@
       </c>
       <c r="J658" s="3"/>
     </row>
-    <row r="659" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="659" spans="1:10" ht="15" thickBot="1">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -45681,7 +45680,7 @@
       </c>
       <c r="J659" s="3"/>
     </row>
-    <row r="660" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="660" spans="1:10" ht="15" thickBot="1">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -45711,7 +45710,7 @@
       </c>
       <c r="J660" s="3"/>
     </row>
-    <row r="661" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="661" spans="1:10" ht="15" thickBot="1">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -45741,7 +45740,7 @@
       </c>
       <c r="J661" s="3"/>
     </row>
-    <row r="662" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="662" spans="1:10" ht="15" thickBot="1">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -45771,7 +45770,7 @@
       </c>
       <c r="J662" s="3"/>
     </row>
-    <row r="663" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="663" spans="1:10" ht="15" thickBot="1">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -45801,7 +45800,7 @@
       </c>
       <c r="J663" s="3"/>
     </row>
-    <row r="664" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="664" spans="1:10" ht="15" thickBot="1">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -45831,7 +45830,7 @@
       </c>
       <c r="J664" s="3"/>
     </row>
-    <row r="665" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="665" spans="1:10" ht="15" thickBot="1">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -45861,7 +45860,7 @@
       </c>
       <c r="J665" s="3"/>
     </row>
-    <row r="666" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="666" spans="1:10" ht="15" thickBot="1">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -45891,7 +45890,7 @@
       </c>
       <c r="J666" s="3"/>
     </row>
-    <row r="667" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="667" spans="1:10" ht="15" thickBot="1">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -45921,7 +45920,7 @@
       </c>
       <c r="J667" s="3"/>
     </row>
-    <row r="668" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="668" spans="1:10" ht="15" thickBot="1">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -45951,7 +45950,7 @@
       </c>
       <c r="J668" s="3"/>
     </row>
-    <row r="669" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="669" spans="1:10" ht="15" thickBot="1">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -45981,7 +45980,7 @@
       </c>
       <c r="J669" s="3"/>
     </row>
-    <row r="670" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="670" spans="1:10" ht="15" thickBot="1">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -46011,7 +46010,7 @@
       </c>
       <c r="J670" s="3"/>
     </row>
-    <row r="671" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="671" spans="1:10" ht="15" thickBot="1">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -46041,7 +46040,7 @@
       </c>
       <c r="J671" s="3"/>
     </row>
-    <row r="672" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="672" spans="1:10" ht="15" thickBot="1">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -46071,7 +46070,7 @@
       </c>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="673" spans="1:10" ht="15" thickBot="1">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -46101,7 +46100,7 @@
       </c>
       <c r="J673" s="3"/>
     </row>
-    <row r="674" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="674" spans="1:10" ht="15" thickBot="1">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -46131,7 +46130,7 @@
       </c>
       <c r="J674" s="3"/>
     </row>
-    <row r="675" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="675" spans="1:10" ht="15" thickBot="1">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -46161,7 +46160,7 @@
       </c>
       <c r="J675" s="3"/>
     </row>
-    <row r="676" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="676" spans="1:10" ht="15" thickBot="1">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -46191,7 +46190,7 @@
       </c>
       <c r="J676" s="3"/>
     </row>
-    <row r="677" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="677" spans="1:10" ht="15" thickBot="1">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -46221,7 +46220,7 @@
       </c>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="678" spans="1:10" ht="15" thickBot="1">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -46251,7 +46250,7 @@
       </c>
       <c r="J678" s="3"/>
     </row>
-    <row r="679" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="679" spans="1:10" ht="15" thickBot="1">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -46281,7 +46280,7 @@
       </c>
       <c r="J679" s="3"/>
     </row>
-    <row r="680" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="680" spans="1:10" ht="15" thickBot="1">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -46311,7 +46310,7 @@
       </c>
       <c r="J680" s="3"/>
     </row>
-    <row r="681" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="681" spans="1:10" ht="15" thickBot="1">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -46341,7 +46340,7 @@
       </c>
       <c r="J681" s="3"/>
     </row>
-    <row r="682" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="682" spans="1:10" ht="15" thickBot="1">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -46371,7 +46370,7 @@
       </c>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="683" spans="1:10" ht="15" thickBot="1">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -46401,7 +46400,7 @@
       </c>
       <c r="J683" s="3"/>
     </row>
-    <row r="684" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="684" spans="1:10" ht="15" thickBot="1">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -46431,7 +46430,7 @@
       </c>
       <c r="J684" s="3"/>
     </row>
-    <row r="685" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="685" spans="1:10" ht="15" thickBot="1">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -46461,7 +46460,7 @@
       </c>
       <c r="J685" s="3"/>
     </row>
-    <row r="686" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="686" spans="1:10" ht="15" thickBot="1">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -46491,7 +46490,7 @@
       </c>
       <c r="J686" s="3"/>
     </row>
-    <row r="687" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="687" spans="1:10" ht="15" thickBot="1">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -46521,7 +46520,7 @@
       </c>
       <c r="J687" s="3"/>
     </row>
-    <row r="688" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="688" spans="1:10" ht="15" thickBot="1">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -46551,7 +46550,7 @@
       </c>
       <c r="J688" s="3"/>
     </row>
-    <row r="689" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="689" spans="1:10" ht="15" thickBot="1">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -46581,7 +46580,7 @@
       </c>
       <c r="J689" s="3"/>
     </row>
-    <row r="690" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="690" spans="1:10" ht="15" thickBot="1">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -46611,7 +46610,7 @@
       </c>
       <c r="J690" s="3"/>
     </row>
-    <row r="691" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="691" spans="1:10" ht="15" thickBot="1">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -46641,7 +46640,7 @@
       </c>
       <c r="J691" s="3"/>
     </row>
-    <row r="692" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="692" spans="1:10" ht="15" thickBot="1">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -46671,7 +46670,7 @@
       </c>
       <c r="J692" s="3"/>
     </row>
-    <row r="693" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="693" spans="1:10" ht="15" thickBot="1">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -46701,7 +46700,7 @@
       </c>
       <c r="J693" s="3"/>
     </row>
-    <row r="694" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="694" spans="1:10" ht="15" thickBot="1">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -46731,7 +46730,7 @@
       </c>
       <c r="J694" s="3"/>
     </row>
-    <row r="695" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="695" spans="1:10" ht="15" thickBot="1">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -46761,7 +46760,7 @@
       </c>
       <c r="J695" s="3"/>
     </row>
-    <row r="696" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="696" spans="1:10" ht="15" thickBot="1">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -46791,7 +46790,7 @@
       </c>
       <c r="J696" s="3"/>
     </row>
-    <row r="697" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="697" spans="1:10" ht="15" thickBot="1">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -46821,7 +46820,7 @@
       </c>
       <c r="J697" s="3"/>
     </row>
-    <row r="698" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="698" spans="1:10" ht="15" thickBot="1">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -46851,7 +46850,7 @@
       </c>
       <c r="J698" s="3"/>
     </row>
-    <row r="699" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="699" spans="1:10" ht="15" thickBot="1">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -46881,7 +46880,7 @@
       </c>
       <c r="J699" s="3"/>
     </row>
-    <row r="700" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="700" spans="1:10" ht="15" thickBot="1">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -46911,7 +46910,7 @@
       </c>
       <c r="J700" s="3"/>
     </row>
-    <row r="701" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="701" spans="1:10" ht="15" thickBot="1">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -46941,7 +46940,7 @@
       </c>
       <c r="J701" s="3"/>
     </row>
-    <row r="702" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="702" spans="1:10" ht="15" thickBot="1">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -46971,7 +46970,7 @@
       </c>
       <c r="J702" s="3"/>
     </row>
-    <row r="703" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="703" spans="1:10" ht="15" thickBot="1">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -47001,7 +47000,7 @@
       </c>
       <c r="J703" s="3"/>
     </row>
-    <row r="704" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="704" spans="1:10" ht="15" thickBot="1">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -47031,7 +47030,7 @@
       </c>
       <c r="J704" s="3"/>
     </row>
-    <row r="705" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="705" spans="1:10" ht="15" thickBot="1">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -47061,7 +47060,7 @@
       </c>
       <c r="J705" s="3"/>
     </row>
-    <row r="706" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="706" spans="1:10" ht="15" thickBot="1">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -47091,7 +47090,7 @@
       </c>
       <c r="J706" s="3"/>
     </row>
-    <row r="707" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="707" spans="1:10" ht="15" thickBot="1">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -47121,7 +47120,7 @@
       </c>
       <c r="J707" s="3"/>
     </row>
-    <row r="708" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="708" spans="1:10" ht="15" thickBot="1">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -47151,7 +47150,7 @@
       </c>
       <c r="J708" s="3"/>
     </row>
-    <row r="709" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="709" spans="1:10" ht="15" thickBot="1">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -47181,7 +47180,7 @@
       </c>
       <c r="J709" s="3"/>
     </row>
-    <row r="710" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="710" spans="1:10" ht="15" thickBot="1">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -47211,7 +47210,7 @@
       </c>
       <c r="J710" s="3"/>
     </row>
-    <row r="711" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="711" spans="1:10" ht="15" thickBot="1">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -47241,7 +47240,7 @@
       </c>
       <c r="J711" s="3"/>
     </row>
-    <row r="712" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="712" spans="1:10" ht="15" thickBot="1">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -47271,7 +47270,7 @@
       </c>
       <c r="J712" s="3"/>
     </row>
-    <row r="713" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="713" spans="1:10" ht="15" thickBot="1">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -47301,7 +47300,7 @@
       </c>
       <c r="J713" s="3"/>
     </row>
-    <row r="714" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="714" spans="1:10" ht="15" thickBot="1">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -47331,7 +47330,7 @@
       </c>
       <c r="J714" s="3"/>
     </row>
-    <row r="715" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="715" spans="1:10" ht="15" thickBot="1">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -47361,7 +47360,7 @@
       </c>
       <c r="J715" s="3"/>
     </row>
-    <row r="716" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="716" spans="1:10" ht="15" thickBot="1">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -47391,7 +47390,7 @@
       </c>
       <c r="J716" s="3"/>
     </row>
-    <row r="717" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="717" spans="1:10" ht="15" thickBot="1">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -47421,7 +47420,7 @@
       </c>
       <c r="J717" s="3"/>
     </row>
-    <row r="718" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="718" spans="1:10" ht="15" thickBot="1">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -47451,7 +47450,7 @@
       </c>
       <c r="J718" s="3"/>
     </row>
-    <row r="719" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="719" spans="1:10" ht="15" thickBot="1">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -47481,7 +47480,7 @@
       </c>
       <c r="J719" s="3"/>
     </row>
-    <row r="720" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="720" spans="1:10" ht="15" thickBot="1">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -47511,7 +47510,7 @@
       </c>
       <c r="J720" s="3"/>
     </row>
-    <row r="721" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="721" spans="1:10" ht="15" thickBot="1">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -47541,7 +47540,7 @@
       </c>
       <c r="J721" s="3"/>
     </row>
-    <row r="722" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="722" spans="1:10" ht="15" thickBot="1">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -47571,7 +47570,7 @@
       </c>
       <c r="J722" s="3"/>
     </row>
-    <row r="723" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="723" spans="1:10" ht="15" thickBot="1">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -47601,7 +47600,7 @@
       </c>
       <c r="J723" s="3"/>
     </row>
-    <row r="724" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="724" spans="1:10" ht="15" thickBot="1">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -47631,7 +47630,7 @@
       </c>
       <c r="J724" s="3"/>
     </row>
-    <row r="725" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="725" spans="1:10" ht="15" thickBot="1">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -47661,7 +47660,7 @@
       </c>
       <c r="J725" s="3"/>
     </row>
-    <row r="726" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="726" spans="1:10" ht="15" thickBot="1">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -47691,7 +47690,7 @@
       </c>
       <c r="J726" s="3"/>
     </row>
-    <row r="727" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="727" spans="1:10" ht="15" thickBot="1">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -47721,7 +47720,7 @@
       </c>
       <c r="J727" s="3"/>
     </row>
-    <row r="728" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="728" spans="1:10" ht="15" thickBot="1">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -47751,7 +47750,7 @@
       </c>
       <c r="J728" s="3"/>
     </row>
-    <row r="729" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="729" spans="1:10" ht="15" thickBot="1">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -47781,7 +47780,7 @@
       </c>
       <c r="J729" s="3"/>
     </row>
-    <row r="730" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="730" spans="1:10" ht="15" thickBot="1">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -47811,7 +47810,7 @@
       </c>
       <c r="J730" s="3"/>
     </row>
-    <row r="731" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="731" spans="1:10" ht="15" thickBot="1">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -47841,7 +47840,7 @@
       </c>
       <c r="J731" s="3"/>
     </row>
-    <row r="732" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="732" spans="1:10" ht="15" thickBot="1">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -47871,7 +47870,7 @@
       </c>
       <c r="J732" s="3"/>
     </row>
-    <row r="733" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="733" spans="1:10" ht="15" thickBot="1">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -47901,7 +47900,7 @@
       </c>
       <c r="J733" s="3"/>
     </row>
-    <row r="734" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="734" spans="1:10" ht="15" thickBot="1">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -47931,7 +47930,7 @@
       </c>
       <c r="J734" s="3"/>
     </row>
-    <row r="735" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="735" spans="1:10" ht="15" thickBot="1">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -47961,7 +47960,7 @@
       </c>
       <c r="J735" s="3"/>
     </row>
-    <row r="736" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="736" spans="1:10" ht="15" thickBot="1">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -47991,7 +47990,7 @@
       </c>
       <c r="J736" s="3"/>
     </row>
-    <row r="737" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="737" spans="1:10" ht="15" thickBot="1">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -48021,7 +48020,7 @@
       </c>
       <c r="J737" s="3"/>
     </row>
-    <row r="738" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="738" spans="1:10" ht="15" thickBot="1">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -48051,7 +48050,7 @@
       </c>
       <c r="J738" s="3"/>
     </row>
-    <row r="739" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="739" spans="1:10" ht="15" thickBot="1">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -48081,7 +48080,7 @@
       </c>
       <c r="J739" s="3"/>
     </row>
-    <row r="740" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="740" spans="1:10" ht="15" thickBot="1">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -48111,7 +48110,7 @@
       </c>
       <c r="J740" s="3"/>
     </row>
-    <row r="741" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="741" spans="1:10" ht="15" thickBot="1">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -48141,7 +48140,7 @@
       </c>
       <c r="J741" s="3"/>
     </row>
-    <row r="742" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="742" spans="1:10" ht="15" thickBot="1">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -48171,7 +48170,7 @@
       </c>
       <c r="J742" s="3"/>
     </row>
-    <row r="743" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="743" spans="1:10" ht="15" thickBot="1">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -48201,7 +48200,7 @@
       </c>
       <c r="J743" s="3"/>
     </row>
-    <row r="744" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="744" spans="1:10" ht="15" thickBot="1">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -48231,7 +48230,7 @@
       </c>
       <c r="J744" s="3"/>
     </row>
-    <row r="745" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="745" spans="1:10" ht="15" thickBot="1">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -48261,7 +48260,7 @@
       </c>
       <c r="J745" s="3"/>
     </row>
-    <row r="746" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="746" spans="1:10" ht="15" thickBot="1">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -48291,7 +48290,7 @@
       </c>
       <c r="J746" s="3"/>
     </row>
-    <row r="747" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="747" spans="1:10" ht="15" thickBot="1">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -48321,7 +48320,7 @@
       </c>
       <c r="J747" s="3"/>
     </row>
-    <row r="748" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="748" spans="1:10" ht="15" thickBot="1">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -48351,7 +48350,7 @@
       </c>
       <c r="J748" s="3"/>
     </row>
-    <row r="749" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="749" spans="1:10" ht="15" thickBot="1">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -48381,7 +48380,7 @@
       </c>
       <c r="J749" s="3"/>
     </row>
-    <row r="750" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="750" spans="1:10" ht="15" thickBot="1">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -48411,7 +48410,7 @@
       </c>
       <c r="J750" s="3"/>
     </row>
-    <row r="751" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="751" spans="1:10" ht="15" thickBot="1">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -48441,7 +48440,7 @@
       </c>
       <c r="J751" s="3"/>
     </row>
-    <row r="752" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="752" spans="1:10" ht="15" thickBot="1">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -48471,7 +48470,7 @@
       </c>
       <c r="J752" s="3"/>
     </row>
-    <row r="753" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="753" spans="1:10" ht="15" thickBot="1">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -48501,7 +48500,7 @@
       </c>
       <c r="J753" s="3"/>
     </row>
-    <row r="754" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="754" spans="1:10" ht="15" thickBot="1">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -48531,7 +48530,7 @@
       </c>
       <c r="J754" s="3"/>
     </row>
-    <row r="755" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="755" spans="1:10" ht="15" thickBot="1">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -48561,7 +48560,7 @@
       </c>
       <c r="J755" s="3"/>
     </row>
-    <row r="756" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="756" spans="1:10" ht="15" thickBot="1">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -48591,7 +48590,7 @@
       </c>
       <c r="J756" s="3"/>
     </row>
-    <row r="757" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="757" spans="1:10" ht="15" thickBot="1">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -48621,7 +48620,7 @@
       </c>
       <c r="J757" s="3"/>
     </row>
-    <row r="758" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="758" spans="1:10" ht="15" thickBot="1">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -48651,7 +48650,7 @@
       </c>
       <c r="J758" s="3"/>
     </row>
-    <row r="759" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="759" spans="1:10" ht="15" thickBot="1">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -48681,7 +48680,7 @@
       </c>
       <c r="J759" s="3"/>
     </row>
-    <row r="760" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="760" spans="1:10" ht="15" thickBot="1">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -48711,7 +48710,7 @@
       </c>
       <c r="J760" s="3"/>
     </row>
-    <row r="761" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="761" spans="1:10" ht="15" thickBot="1">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -48741,7 +48740,7 @@
       </c>
       <c r="J761" s="3"/>
     </row>
-    <row r="762" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="762" spans="1:10" ht="15" thickBot="1">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -48771,7 +48770,7 @@
       </c>
       <c r="J762" s="3"/>
     </row>
-    <row r="763" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="763" spans="1:10" ht="15" thickBot="1">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -48801,7 +48800,7 @@
       </c>
       <c r="J763" s="3"/>
     </row>
-    <row r="764" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="764" spans="1:10" ht="15" thickBot="1">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -48831,7 +48830,7 @@
       </c>
       <c r="J764" s="3"/>
     </row>
-    <row r="765" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="765" spans="1:10" ht="15" thickBot="1">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -48861,7 +48860,7 @@
       </c>
       <c r="J765" s="3"/>
     </row>
-    <row r="766" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="766" spans="1:10" ht="15" thickBot="1">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -48891,7 +48890,7 @@
       </c>
       <c r="J766" s="3"/>
     </row>
-    <row r="767" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="767" spans="1:10" ht="15" thickBot="1">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -48921,7 +48920,7 @@
       </c>
       <c r="J767" s="3"/>
     </row>
-    <row r="768" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="768" spans="1:10" ht="15" thickBot="1">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -48951,7 +48950,7 @@
       </c>
       <c r="J768" s="3"/>
     </row>
-    <row r="769" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="769" spans="1:10" ht="15" thickBot="1">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -48981,7 +48980,7 @@
       </c>
       <c r="J769" s="3"/>
     </row>
-    <row r="770" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="770" spans="1:10" ht="15" thickBot="1">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -49011,7 +49010,7 @@
       </c>
       <c r="J770" s="3"/>
     </row>
-    <row r="771" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="771" spans="1:10" ht="15" thickBot="1">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -49041,7 +49040,7 @@
       </c>
       <c r="J771" s="3"/>
     </row>
-    <row r="772" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="772" spans="1:10" ht="15" thickBot="1">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -49071,7 +49070,7 @@
       </c>
       <c r="J772" s="3"/>
     </row>
-    <row r="773" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="773" spans="1:10" ht="15" thickBot="1">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -49101,7 +49100,7 @@
       </c>
       <c r="J773" s="3"/>
     </row>
-    <row r="774" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="774" spans="1:10" ht="15" thickBot="1">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -49131,7 +49130,7 @@
       </c>
       <c r="J774" s="3"/>
     </row>
-    <row r="775" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="775" spans="1:10" ht="15" thickBot="1">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -49161,7 +49160,7 @@
       </c>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="776" spans="1:10" ht="15" thickBot="1">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -49191,7 +49190,7 @@
       </c>
       <c r="J776" s="3"/>
     </row>
-    <row r="777" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="777" spans="1:10" ht="15" thickBot="1">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -49221,7 +49220,7 @@
       </c>
       <c r="J777" s="3"/>
     </row>
-    <row r="778" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="778" spans="1:10" ht="15" thickBot="1">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -49251,7 +49250,7 @@
       </c>
       <c r="J778" s="3"/>
     </row>
-    <row r="779" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="779" spans="1:10" ht="15" thickBot="1">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -49281,7 +49280,7 @@
       </c>
       <c r="J779" s="3"/>
     </row>
-    <row r="780" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="780" spans="1:10" ht="15" thickBot="1">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -49311,7 +49310,7 @@
       </c>
       <c r="J780" s="3"/>
     </row>
-    <row r="781" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="781" spans="1:10" ht="15" thickBot="1">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -49341,7 +49340,7 @@
       </c>
       <c r="J781" s="3"/>
     </row>
-    <row r="782" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="782" spans="1:10" ht="15" thickBot="1">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -49371,7 +49370,7 @@
       </c>
       <c r="J782" s="3"/>
     </row>
-    <row r="783" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="783" spans="1:10" ht="15" thickBot="1">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -49401,7 +49400,7 @@
       </c>
       <c r="J783" s="3"/>
     </row>
-    <row r="784" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="784" spans="1:10" ht="15" thickBot="1">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -49431,7 +49430,7 @@
       </c>
       <c r="J784" s="3"/>
     </row>
-    <row r="785" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="785" spans="1:10" ht="15" thickBot="1">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -49461,7 +49460,7 @@
       </c>
       <c r="J785" s="3"/>
     </row>
-    <row r="786" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="786" spans="1:10" ht="15" thickBot="1">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -49491,7 +49490,7 @@
       </c>
       <c r="J786" s="3"/>
     </row>
-    <row r="787" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="787" spans="1:10" ht="15" thickBot="1">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -49521,7 +49520,7 @@
       </c>
       <c r="J787" s="3"/>
     </row>
-    <row r="788" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="788" spans="1:10" ht="15" thickBot="1">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -49551,7 +49550,7 @@
       </c>
       <c r="J788" s="3"/>
     </row>
-    <row r="789" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="789" spans="1:10" ht="15" thickBot="1">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -49581,7 +49580,7 @@
       </c>
       <c r="J789" s="3"/>
     </row>
-    <row r="790" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="790" spans="1:10" ht="15" thickBot="1">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -49611,7 +49610,7 @@
       </c>
       <c r="J790" s="3"/>
     </row>
-    <row r="791" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="791" spans="1:10" ht="15" thickBot="1">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -49641,7 +49640,7 @@
       </c>
       <c r="J791" s="3"/>
     </row>
-    <row r="792" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="792" spans="1:10" ht="15" thickBot="1">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -49671,7 +49670,7 @@
       </c>
       <c r="J792" s="3"/>
     </row>
-    <row r="793" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="793" spans="1:10" ht="15" thickBot="1">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -49701,7 +49700,7 @@
       </c>
       <c r="J793" s="3"/>
     </row>
-    <row r="794" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="794" spans="1:10" ht="15" thickBot="1">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -49731,7 +49730,7 @@
       </c>
       <c r="J794" s="3"/>
     </row>
-    <row r="795" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="795" spans="1:10" ht="15" thickBot="1">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -49761,7 +49760,7 @@
       </c>
       <c r="J795" s="3"/>
     </row>
-    <row r="796" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="796" spans="1:10" ht="15" thickBot="1">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -49791,7 +49790,7 @@
       </c>
       <c r="J796" s="3"/>
     </row>
-    <row r="797" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="797" spans="1:10" ht="15" thickBot="1">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -49821,7 +49820,7 @@
       </c>
       <c r="J797" s="3"/>
     </row>
-    <row r="798" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="798" spans="1:10" ht="15" thickBot="1">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -49851,7 +49850,7 @@
       </c>
       <c r="J798" s="3"/>
     </row>
-    <row r="799" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="799" spans="1:10" ht="15" thickBot="1">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -49881,7 +49880,7 @@
       </c>
       <c r="J799" s="3"/>
     </row>
-    <row r="800" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="800" spans="1:10" ht="15" thickBot="1">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -49911,7 +49910,7 @@
       </c>
       <c r="J800" s="3"/>
     </row>
-    <row r="801" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="801" spans="1:10" ht="15" thickBot="1">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -49941,7 +49940,7 @@
       </c>
       <c r="J801" s="3"/>
     </row>
-    <row r="802" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="802" spans="1:10" ht="15" thickBot="1">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -49971,7 +49970,7 @@
       </c>
       <c r="J802" s="3"/>
     </row>
-    <row r="803" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="803" spans="1:10" ht="15" thickBot="1">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -50001,7 +50000,7 @@
       </c>
       <c r="J803" s="3"/>
     </row>
-    <row r="804" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="804" spans="1:10" ht="15" thickBot="1">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -50031,7 +50030,7 @@
       </c>
       <c r="J804" s="3"/>
     </row>
-    <row r="805" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="805" spans="1:10" ht="15" thickBot="1">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -50061,7 +50060,7 @@
       </c>
       <c r="J805" s="3"/>
     </row>
-    <row r="806" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="806" spans="1:10" ht="15" thickBot="1">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -50091,7 +50090,7 @@
       </c>
       <c r="J806" s="3"/>
     </row>
-    <row r="807" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="807" spans="1:10" ht="15" thickBot="1">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -50121,7 +50120,7 @@
       </c>
       <c r="J807" s="3"/>
     </row>
-    <row r="808" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="808" spans="1:10" ht="15" thickBot="1">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -50151,7 +50150,7 @@
       </c>
       <c r="J808" s="3"/>
     </row>
-    <row r="809" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="809" spans="1:10" ht="15" thickBot="1">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -50181,7 +50180,7 @@
       </c>
       <c r="J809" s="3"/>
     </row>
-    <row r="810" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="810" spans="1:10" ht="15" thickBot="1">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -50211,7 +50210,7 @@
       </c>
       <c r="J810" s="3"/>
     </row>
-    <row r="811" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="811" spans="1:10" ht="15" thickBot="1">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -50241,7 +50240,7 @@
       </c>
       <c r="J811" s="3"/>
     </row>
-    <row r="812" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="812" spans="1:10" ht="15" thickBot="1">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -50271,7 +50270,7 @@
       </c>
       <c r="J812" s="3"/>
     </row>
-    <row r="813" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="813" spans="1:10" ht="15" thickBot="1">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -50301,7 +50300,7 @@
       </c>
       <c r="J813" s="3"/>
     </row>
-    <row r="814" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="814" spans="1:10" ht="15" thickBot="1">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -50331,7 +50330,7 @@
       </c>
       <c r="J814" s="3"/>
     </row>
-    <row r="815" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="815" spans="1:10" ht="15" thickBot="1">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -50361,7 +50360,7 @@
       </c>
       <c r="J815" s="3"/>
     </row>
-    <row r="816" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="816" spans="1:10" ht="15" thickBot="1">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -50391,7 +50390,7 @@
       </c>
       <c r="J816" s="3"/>
     </row>
-    <row r="817" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="817" spans="1:10" ht="15" thickBot="1">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -50421,7 +50420,7 @@
       </c>
       <c r="J817" s="3"/>
     </row>
-    <row r="818" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="818" spans="1:10" ht="15" thickBot="1">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -50451,7 +50450,7 @@
       </c>
       <c r="J818" s="3"/>
     </row>
-    <row r="819" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="819" spans="1:10" ht="15" thickBot="1">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -50481,7 +50480,7 @@
       </c>
       <c r="J819" s="3"/>
     </row>
-    <row r="820" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="820" spans="1:10" ht="15" thickBot="1">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -50511,7 +50510,7 @@
       </c>
       <c r="J820" s="3"/>
     </row>
-    <row r="821" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="821" spans="1:10" ht="15" thickBot="1">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -50541,7 +50540,7 @@
       </c>
       <c r="J821" s="3"/>
     </row>
-    <row r="822" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="822" spans="1:10" ht="15" thickBot="1">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -50571,7 +50570,7 @@
       </c>
       <c r="J822" s="3"/>
     </row>
-    <row r="823" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="823" spans="1:10" ht="15" thickBot="1">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -50601,7 +50600,7 @@
       </c>
       <c r="J823" s="3"/>
     </row>
-    <row r="824" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="824" spans="1:10" ht="15" thickBot="1">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -50631,7 +50630,7 @@
       </c>
       <c r="J824" s="3"/>
     </row>
-    <row r="825" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="825" spans="1:10" ht="15" thickBot="1">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -50661,7 +50660,7 @@
       </c>
       <c r="J825" s="3"/>
     </row>
-    <row r="826" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="826" spans="1:10" ht="15" thickBot="1">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -50691,7 +50690,7 @@
       </c>
       <c r="J826" s="3"/>
     </row>
-    <row r="827" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="827" spans="1:10" ht="15" thickBot="1">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -50721,7 +50720,7 @@
       </c>
       <c r="J827" s="3"/>
     </row>
-    <row r="828" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="828" spans="1:10" ht="15" thickBot="1">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -50751,7 +50750,7 @@
       </c>
       <c r="J828" s="3"/>
     </row>
-    <row r="829" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="829" spans="1:10" ht="15" thickBot="1">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -50781,7 +50780,7 @@
       </c>
       <c r="J829" s="3"/>
     </row>
-    <row r="830" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="830" spans="1:10" ht="15" thickBot="1">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -50811,7 +50810,7 @@
       </c>
       <c r="J830" s="3"/>
     </row>
-    <row r="831" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="831" spans="1:10" ht="15" thickBot="1">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -50841,7 +50840,7 @@
       </c>
       <c r="J831" s="3"/>
     </row>
-    <row r="832" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="832" spans="1:10" ht="15" thickBot="1">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -50871,7 +50870,7 @@
       </c>
       <c r="J832" s="3"/>
     </row>
-    <row r="833" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="833" spans="1:10" ht="15" thickBot="1">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -50901,7 +50900,7 @@
       </c>
       <c r="J833" s="3"/>
     </row>
-    <row r="834" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="834" spans="1:10" ht="15" thickBot="1">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -50931,7 +50930,7 @@
       </c>
       <c r="J834" s="3"/>
     </row>
-    <row r="835" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="835" spans="1:10" ht="15" thickBot="1">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -50961,7 +50960,7 @@
       </c>
       <c r="J835" s="3"/>
     </row>
-    <row r="836" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="836" spans="1:10" ht="15" thickBot="1">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -50991,7 +50990,7 @@
       </c>
       <c r="J836" s="3"/>
     </row>
-    <row r="837" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="837" spans="1:10" ht="15" thickBot="1">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -51021,7 +51020,7 @@
       </c>
       <c r="J837" s="3"/>
     </row>
-    <row r="838" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="838" spans="1:10" ht="15" thickBot="1">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -51051,7 +51050,7 @@
       </c>
       <c r="J838" s="3"/>
     </row>
-    <row r="839" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="839" spans="1:10" ht="15" thickBot="1">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -51081,7 +51080,7 @@
       </c>
       <c r="J839" s="3"/>
     </row>
-    <row r="840" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="840" spans="1:10" ht="15" thickBot="1">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -51111,7 +51110,7 @@
       </c>
       <c r="J840" s="3"/>
     </row>
-    <row r="841" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="841" spans="1:10" ht="15" thickBot="1">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -51141,7 +51140,7 @@
       </c>
       <c r="J841" s="3"/>
     </row>
-    <row r="842" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="842" spans="1:10" ht="15" thickBot="1">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -51171,7 +51170,7 @@
       </c>
       <c r="J842" s="3"/>
     </row>
-    <row r="843" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="843" spans="1:10" ht="15" thickBot="1">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -51201,7 +51200,7 @@
       </c>
       <c r="J843" s="3"/>
     </row>
-    <row r="844" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="844" spans="1:10" ht="15" thickBot="1">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -51231,7 +51230,7 @@
       </c>
       <c r="J844" s="3"/>
     </row>
-    <row r="845" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="845" spans="1:10" ht="15" thickBot="1">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -51261,7 +51260,7 @@
       </c>
       <c r="J845" s="3"/>
     </row>
-    <row r="846" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="846" spans="1:10" ht="15" thickBot="1">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -51291,7 +51290,7 @@
       </c>
       <c r="J846" s="3"/>
     </row>
-    <row r="847" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="847" spans="1:10" ht="15" thickBot="1">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -51321,7 +51320,7 @@
       </c>
       <c r="J847" s="3"/>
     </row>
-    <row r="848" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="848" spans="1:10" ht="15" thickBot="1">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -51351,7 +51350,7 @@
       </c>
       <c r="J848" s="3"/>
     </row>
-    <row r="849" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="849" spans="1:10" ht="15" thickBot="1">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -51381,7 +51380,7 @@
       </c>
       <c r="J849" s="3"/>
     </row>
-    <row r="850" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="850" spans="1:10" ht="15" thickBot="1">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -51411,7 +51410,7 @@
       </c>
       <c r="J850" s="3"/>
     </row>
-    <row r="851" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="851" spans="1:10" ht="15" thickBot="1">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -51441,7 +51440,7 @@
       </c>
       <c r="J851" s="3"/>
     </row>
-    <row r="852" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="852" spans="1:10" ht="15" thickBot="1">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -51471,7 +51470,7 @@
       </c>
       <c r="J852" s="3"/>
     </row>
-    <row r="853" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="853" spans="1:10" ht="15" thickBot="1">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -51501,7 +51500,7 @@
       </c>
       <c r="J853" s="3"/>
     </row>
-    <row r="854" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="854" spans="1:10" ht="15" thickBot="1">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -51531,7 +51530,7 @@
       </c>
       <c r="J854" s="3"/>
     </row>
-    <row r="855" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="855" spans="1:10" ht="15" thickBot="1">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -51561,7 +51560,7 @@
       </c>
       <c r="J855" s="3"/>
     </row>
-    <row r="856" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="856" spans="1:10" ht="15" thickBot="1">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -51591,7 +51590,7 @@
       </c>
       <c r="J856" s="3"/>
     </row>
-    <row r="857" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="857" spans="1:10" ht="15" thickBot="1">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -51621,7 +51620,7 @@
       </c>
       <c r="J857" s="3"/>
     </row>
-    <row r="858" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="858" spans="1:10" ht="15" thickBot="1">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -51651,7 +51650,7 @@
       </c>
       <c r="J858" s="3"/>
     </row>
-    <row r="859" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="859" spans="1:10" ht="15" thickBot="1">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -51681,7 +51680,7 @@
       </c>
       <c r="J859" s="3"/>
     </row>
-    <row r="860" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="860" spans="1:10" ht="15" thickBot="1">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -51711,7 +51710,7 @@
       </c>
       <c r="J860" s="3"/>
     </row>
-    <row r="861" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="861" spans="1:10" ht="15" thickBot="1">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -51741,7 +51740,7 @@
       </c>
       <c r="J861" s="3"/>
     </row>
-    <row r="862" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="862" spans="1:10" ht="15" thickBot="1">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -51771,7 +51770,7 @@
       </c>
       <c r="J862" s="3"/>
     </row>
-    <row r="863" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="863" spans="1:10" ht="15" thickBot="1">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -51801,7 +51800,7 @@
       </c>
       <c r="J863" s="3"/>
     </row>
-    <row r="864" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="864" spans="1:10" ht="15" thickBot="1">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -51831,7 +51830,7 @@
       </c>
       <c r="J864" s="3"/>
     </row>
-    <row r="865" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="865" spans="1:10" ht="15" thickBot="1">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -51861,7 +51860,7 @@
       </c>
       <c r="J865" s="3"/>
     </row>
-    <row r="866" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="866" spans="1:10" ht="15" thickBot="1">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -51891,7 +51890,7 @@
       </c>
       <c r="J866" s="3"/>
     </row>
-    <row r="867" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="867" spans="1:10" ht="15" thickBot="1">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -51921,7 +51920,7 @@
       </c>
       <c r="J867" s="3"/>
     </row>
-    <row r="868" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="868" spans="1:10" ht="15" thickBot="1">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -51951,7 +51950,7 @@
       </c>
       <c r="J868" s="3"/>
     </row>
-    <row r="869" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="869" spans="1:10" ht="15" thickBot="1">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -51981,7 +51980,7 @@
       </c>
       <c r="J869" s="3"/>
     </row>
-    <row r="870" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="870" spans="1:10" ht="15" thickBot="1">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -52011,7 +52010,7 @@
       </c>
       <c r="J870" s="3"/>
     </row>
-    <row r="871" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="871" spans="1:10" ht="15" thickBot="1">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -52041,7 +52040,7 @@
       </c>
       <c r="J871" s="3"/>
     </row>
-    <row r="872" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="872" spans="1:10" ht="15" thickBot="1">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -52071,7 +52070,7 @@
       </c>
       <c r="J872" s="3"/>
     </row>
-    <row r="873" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="873" spans="1:10" ht="15" thickBot="1">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -52101,7 +52100,7 @@
       </c>
       <c r="J873" s="3"/>
     </row>
-    <row r="874" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="874" spans="1:10" ht="15" thickBot="1">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -52131,7 +52130,7 @@
       </c>
       <c r="J874" s="3"/>
     </row>
-    <row r="875" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="875" spans="1:10" ht="15" thickBot="1">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -52161,7 +52160,7 @@
       </c>
       <c r="J875" s="3"/>
     </row>
-    <row r="876" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="876" spans="1:10" ht="15" thickBot="1">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -52191,7 +52190,7 @@
       </c>
       <c r="J876" s="3"/>
     </row>
-    <row r="877" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="877" spans="1:10" ht="15" thickBot="1">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -52221,7 +52220,7 @@
       </c>
       <c r="J877" s="3"/>
     </row>
-    <row r="878" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="878" spans="1:10" ht="15" thickBot="1">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -52251,7 +52250,7 @@
       </c>
       <c r="J878" s="3"/>
     </row>
-    <row r="879" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="879" spans="1:10" ht="15" thickBot="1">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -52281,7 +52280,7 @@
       </c>
       <c r="J879" s="3"/>
     </row>
-    <row r="880" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="880" spans="1:10" ht="15" thickBot="1">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -52311,7 +52310,7 @@
       </c>
       <c r="J880" s="3"/>
     </row>
-    <row r="881" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="881" spans="1:10" ht="15" thickBot="1">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -52341,7 +52340,7 @@
       </c>
       <c r="J881" s="3"/>
     </row>
-    <row r="882" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="882" spans="1:10" ht="15" thickBot="1">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -52371,7 +52370,7 @@
       </c>
       <c r="J882" s="3"/>
     </row>
-    <row r="883" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="883" spans="1:10" ht="15" thickBot="1">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -52401,7 +52400,7 @@
       </c>
       <c r="J883" s="3"/>
     </row>
-    <row r="884" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="884" spans="1:10" ht="15" thickBot="1">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -52431,7 +52430,7 @@
       </c>
       <c r="J884" s="3"/>
     </row>
-    <row r="885" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="885" spans="1:10" ht="15" thickBot="1">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -52461,7 +52460,7 @@
       </c>
       <c r="J885" s="3"/>
     </row>
-    <row r="886" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="886" spans="1:10" ht="15" thickBot="1">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -52491,7 +52490,7 @@
       </c>
       <c r="J886" s="3"/>
     </row>
-    <row r="887" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="887" spans="1:10" ht="15" thickBot="1">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -52521,7 +52520,7 @@
       </c>
       <c r="J887" s="3"/>
     </row>
-    <row r="888" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="888" spans="1:10" ht="15" thickBot="1">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -52551,7 +52550,7 @@
       </c>
       <c r="J888" s="3"/>
     </row>
-    <row r="889" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="889" spans="1:10" ht="15" thickBot="1">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -52581,7 +52580,7 @@
       </c>
       <c r="J889" s="3"/>
     </row>
-    <row r="890" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="890" spans="1:10" ht="15" thickBot="1">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -52611,7 +52610,7 @@
       </c>
       <c r="J890" s="3"/>
     </row>
-    <row r="891" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="891" spans="1:10" ht="15" thickBot="1">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -52641,7 +52640,7 @@
       </c>
       <c r="J891" s="3"/>
     </row>
-    <row r="892" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="892" spans="1:10" ht="15" thickBot="1">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -52671,7 +52670,7 @@
       </c>
       <c r="J892" s="3"/>
     </row>
-    <row r="893" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="893" spans="1:10" ht="15" thickBot="1">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -52701,7 +52700,7 @@
       </c>
       <c r="J893" s="3"/>
     </row>
-    <row r="894" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="894" spans="1:10" ht="15" thickBot="1">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -52731,7 +52730,7 @@
       </c>
       <c r="J894" s="3"/>
     </row>
-    <row r="895" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="895" spans="1:10" ht="15" thickBot="1">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -52761,7 +52760,7 @@
       </c>
       <c r="J895" s="3"/>
     </row>
-    <row r="896" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="896" spans="1:10" ht="15" thickBot="1">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -52791,7 +52790,7 @@
       </c>
       <c r="J896" s="3"/>
     </row>
-    <row r="897" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="897" spans="1:10" ht="15" thickBot="1">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -52821,7 +52820,7 @@
       </c>
       <c r="J897" s="3"/>
     </row>
-    <row r="898" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="898" spans="1:10" ht="15" thickBot="1">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -52851,7 +52850,7 @@
       </c>
       <c r="J898" s="3"/>
     </row>
-    <row r="899" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="899" spans="1:10" ht="15" thickBot="1">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -52881,7 +52880,7 @@
       </c>
       <c r="J899" s="3"/>
     </row>
-    <row r="900" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="900" spans="1:10" ht="15" thickBot="1">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -52911,7 +52910,7 @@
       </c>
       <c r="J900" s="3"/>
     </row>
-    <row r="901" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="901" spans="1:10" ht="15" thickBot="1">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -52941,7 +52940,7 @@
       </c>
       <c r="J901" s="3"/>
     </row>
-    <row r="902" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="902" spans="1:10" ht="15" thickBot="1">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -52971,7 +52970,7 @@
       </c>
       <c r="J902" s="3"/>
     </row>
-    <row r="903" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="903" spans="1:10" ht="15" thickBot="1">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -53001,7 +53000,7 @@
       </c>
       <c r="J903" s="3"/>
     </row>
-    <row r="904" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="904" spans="1:10" ht="15" thickBot="1">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -53031,7 +53030,7 @@
       </c>
       <c r="J904" s="3"/>
     </row>
-    <row r="905" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="905" spans="1:10" ht="15" thickBot="1">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -53061,7 +53060,7 @@
       </c>
       <c r="J905" s="3"/>
     </row>
-    <row r="906" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="906" spans="1:10" ht="15" thickBot="1">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -53091,7 +53090,7 @@
       </c>
       <c r="J906" s="3"/>
     </row>
-    <row r="907" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="907" spans="1:10" ht="15" thickBot="1">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -53121,7 +53120,7 @@
       </c>
       <c r="J907" s="3"/>
     </row>
-    <row r="908" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="908" spans="1:10" ht="15" thickBot="1">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -53151,7 +53150,7 @@
       </c>
       <c r="J908" s="3"/>
     </row>
-    <row r="909" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="909" spans="1:10" ht="15" thickBot="1">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -53181,7 +53180,7 @@
       </c>
       <c r="J909" s="3"/>
     </row>
-    <row r="910" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="910" spans="1:10" ht="15" thickBot="1">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -53211,7 +53210,7 @@
       </c>
       <c r="J910" s="3"/>
     </row>
-    <row r="911" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="911" spans="1:10" ht="15" thickBot="1">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -53241,7 +53240,7 @@
       </c>
       <c r="J911" s="3"/>
     </row>
-    <row r="912" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="912" spans="1:10" ht="15" thickBot="1">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -53271,7 +53270,7 @@
       </c>
       <c r="J912" s="3"/>
     </row>
-    <row r="913" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="913" spans="1:10" ht="15" thickBot="1">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -53301,7 +53300,7 @@
       </c>
       <c r="J913" s="3"/>
     </row>
-    <row r="914" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="914" spans="1:10" ht="15" thickBot="1">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -53331,7 +53330,7 @@
       </c>
       <c r="J914" s="3"/>
     </row>
-    <row r="915" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="915" spans="1:10" ht="15" thickBot="1">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -53361,7 +53360,7 @@
       </c>
       <c r="J915" s="3"/>
     </row>
-    <row r="916" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="916" spans="1:10" ht="15" thickBot="1">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -53391,7 +53390,7 @@
       </c>
       <c r="J916" s="3"/>
     </row>
-    <row r="917" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="917" spans="1:10" ht="15" thickBot="1">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -53421,7 +53420,7 @@
       </c>
       <c r="J917" s="3"/>
     </row>
-    <row r="918" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="918" spans="1:10" ht="15" thickBot="1">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -53451,7 +53450,7 @@
       </c>
       <c r="J918" s="3"/>
     </row>
-    <row r="919" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="919" spans="1:10" ht="15" thickBot="1">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -53481,7 +53480,7 @@
       </c>
       <c r="J919" s="3"/>
     </row>
-    <row r="920" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="920" spans="1:10" ht="15" thickBot="1">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -53511,7 +53510,7 @@
       </c>
       <c r="J920" s="3"/>
     </row>
-    <row r="921" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="921" spans="1:10" ht="15" thickBot="1">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -53541,7 +53540,7 @@
       </c>
       <c r="J921" s="3"/>
     </row>
-    <row r="922" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="922" spans="1:10" ht="15" thickBot="1">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -53571,7 +53570,7 @@
       </c>
       <c r="J922" s="3"/>
     </row>
-    <row r="923" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="923" spans="1:10" ht="15" thickBot="1">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -53601,7 +53600,7 @@
       </c>
       <c r="J923" s="3"/>
     </row>
-    <row r="924" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="924" spans="1:10" ht="15" thickBot="1">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -53631,7 +53630,7 @@
       </c>
       <c r="J924" s="3"/>
     </row>
-    <row r="925" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="925" spans="1:10" ht="15" thickBot="1">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -53661,7 +53660,7 @@
       </c>
       <c r="J925" s="3"/>
     </row>
-    <row r="926" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="926" spans="1:10" ht="15" thickBot="1">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -53691,7 +53690,7 @@
       </c>
       <c r="J926" s="3"/>
     </row>
-    <row r="927" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="927" spans="1:10" ht="15" thickBot="1">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -53721,7 +53720,7 @@
       </c>
       <c r="J927" s="3"/>
     </row>
-    <row r="928" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="928" spans="1:10" ht="15" thickBot="1">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -53751,7 +53750,7 @@
       </c>
       <c r="J928" s="3"/>
     </row>
-    <row r="929" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="929" spans="1:10" ht="15" thickBot="1">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -53781,7 +53780,7 @@
       </c>
       <c r="J929" s="3"/>
     </row>
-    <row r="930" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="930" spans="1:10" ht="15" thickBot="1">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -53811,7 +53810,7 @@
       </c>
       <c r="J930" s="3"/>
     </row>
-    <row r="931" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="931" spans="1:10" ht="15" thickBot="1">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -53841,7 +53840,7 @@
       </c>
       <c r="J931" s="3"/>
     </row>
-    <row r="932" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="932" spans="1:10" ht="15" thickBot="1">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -53871,7 +53870,7 @@
       </c>
       <c r="J932" s="3"/>
     </row>
-    <row r="933" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="933" spans="1:10" ht="15" thickBot="1">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -53901,7 +53900,7 @@
       </c>
       <c r="J933" s="3"/>
     </row>
-    <row r="934" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="934" spans="1:10" ht="15" thickBot="1">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -53931,7 +53930,7 @@
       </c>
       <c r="J934" s="3"/>
     </row>
-    <row r="935" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="935" spans="1:10" ht="15" thickBot="1">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -53961,7 +53960,7 @@
       </c>
       <c r="J935" s="3"/>
     </row>
-    <row r="936" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="936" spans="1:10" ht="15" thickBot="1">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -53991,7 +53990,7 @@
       </c>
       <c r="J936" s="3"/>
     </row>
-    <row r="937" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="937" spans="1:10" ht="15" thickBot="1">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -54021,7 +54020,7 @@
       </c>
       <c r="J937" s="3"/>
     </row>
-    <row r="938" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="938" spans="1:10" ht="15" thickBot="1">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -54051,7 +54050,7 @@
       </c>
       <c r="J938" s="3"/>
     </row>
-    <row r="939" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="939" spans="1:10" ht="15" thickBot="1">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -54081,7 +54080,7 @@
       </c>
       <c r="J939" s="3"/>
     </row>
-    <row r="940" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="940" spans="1:10" ht="15" thickBot="1">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -54111,7 +54110,7 @@
       </c>
       <c r="J940" s="3"/>
     </row>
-    <row r="941" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="941" spans="1:10" ht="15" thickBot="1">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -54141,7 +54140,7 @@
       </c>
       <c r="J941" s="3"/>
     </row>
-    <row r="942" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="942" spans="1:10" ht="15" thickBot="1">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -54171,7 +54170,7 @@
       </c>
       <c r="J942" s="3"/>
     </row>
-    <row r="943" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="943" spans="1:10" ht="15" thickBot="1">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -54201,7 +54200,7 @@
       </c>
       <c r="J943" s="3"/>
     </row>
-    <row r="944" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="944" spans="1:10" ht="15" thickBot="1">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -54231,7 +54230,7 @@
       </c>
       <c r="J944" s="3"/>
     </row>
-    <row r="945" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="945" spans="1:10" ht="15" thickBot="1">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -54261,7 +54260,7 @@
       </c>
       <c r="J945" s="3"/>
     </row>
-    <row r="946" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="946" spans="1:10" ht="15" thickBot="1">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -54291,7 +54290,7 @@
       </c>
       <c r="J946" s="3"/>
     </row>
-    <row r="947" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="947" spans="1:10" ht="15" thickBot="1">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -54321,7 +54320,7 @@
       </c>
       <c r="J947" s="3"/>
     </row>
-    <row r="948" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="948" spans="1:10" ht="15" thickBot="1">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -54351,7 +54350,7 @@
       </c>
       <c r="J948" s="3"/>
     </row>
-    <row r="949" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="949" spans="1:10" ht="15" thickBot="1">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -54381,7 +54380,7 @@
       </c>
       <c r="J949" s="3"/>
     </row>
-    <row r="950" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="950" spans="1:10" ht="15" thickBot="1">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -54411,7 +54410,7 @@
       </c>
       <c r="J950" s="3"/>
     </row>
-    <row r="951" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="951" spans="1:10" ht="15" thickBot="1">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -54441,7 +54440,7 @@
       </c>
       <c r="J951" s="3"/>
     </row>
-    <row r="952" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="952" spans="1:10" ht="15" thickBot="1">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -54471,7 +54470,7 @@
       </c>
       <c r="J952" s="3"/>
     </row>
-    <row r="953" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="953" spans="1:10" ht="15" thickBot="1">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -54501,7 +54500,7 @@
       </c>
       <c r="J953" s="3"/>
     </row>
-    <row r="954" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="954" spans="1:10" ht="15" thickBot="1">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -54531,7 +54530,7 @@
       </c>
       <c r="J954" s="3"/>
     </row>
-    <row r="955" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="955" spans="1:10" ht="15" thickBot="1">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -54561,7 +54560,7 @@
       </c>
       <c r="J955" s="3"/>
     </row>
-    <row r="956" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="956" spans="1:10" ht="15" thickBot="1">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -54591,7 +54590,7 @@
       </c>
       <c r="J956" s="3"/>
     </row>
-    <row r="957" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="957" spans="1:10" ht="15" thickBot="1">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -54621,7 +54620,7 @@
       </c>
       <c r="J957" s="3"/>
     </row>
-    <row r="958" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="958" spans="1:10" ht="15" thickBot="1">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -54651,7 +54650,7 @@
       </c>
       <c r="J958" s="3"/>
     </row>
-    <row r="959" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="959" spans="1:10" ht="15" thickBot="1">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -54681,7 +54680,7 @@
       </c>
       <c r="J959" s="3"/>
     </row>
-    <row r="960" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="960" spans="1:10" ht="15" thickBot="1">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -54711,7 +54710,7 @@
       </c>
       <c r="J960" s="3"/>
     </row>
-    <row r="961" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="961" spans="1:10" ht="15" thickBot="1">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -54741,7 +54740,7 @@
       </c>
       <c r="J961" s="3"/>
     </row>
-    <row r="962" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="962" spans="1:10" ht="15" thickBot="1">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -54771,7 +54770,7 @@
       </c>
       <c r="J962" s="3"/>
     </row>
-    <row r="963" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="963" spans="1:10" ht="15" thickBot="1">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -54801,7 +54800,7 @@
       </c>
       <c r="J963" s="3"/>
     </row>
-    <row r="964" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="964" spans="1:10" ht="15" thickBot="1">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -54831,7 +54830,7 @@
       </c>
       <c r="J964" s="3"/>
     </row>
-    <row r="965" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="965" spans="1:10" ht="15" thickBot="1">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -54861,7 +54860,7 @@
       </c>
       <c r="J965" s="3"/>
     </row>
-    <row r="966" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="966" spans="1:10" ht="15" thickBot="1">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -54891,7 +54890,7 @@
       </c>
       <c r="J966" s="3"/>
     </row>
-    <row r="967" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="967" spans="1:10" ht="15" thickBot="1">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -54921,7 +54920,7 @@
       </c>
       <c r="J967" s="3"/>
     </row>
-    <row r="968" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="968" spans="1:10" ht="15" thickBot="1">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -54951,7 +54950,7 @@
       </c>
       <c r="J968" s="3"/>
     </row>
-    <row r="969" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="969" spans="1:10" ht="15" thickBot="1">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -54981,7 +54980,7 @@
       </c>
       <c r="J969" s="3"/>
     </row>
-    <row r="970" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="970" spans="1:10" ht="15" thickBot="1">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -55011,7 +55010,7 @@
       </c>
       <c r="J970" s="3"/>
     </row>
-    <row r="971" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="971" spans="1:10" ht="15" thickBot="1">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -55041,7 +55040,7 @@
       </c>
       <c r="J971" s="3"/>
     </row>
-    <row r="972" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="972" spans="1:10" ht="15" thickBot="1">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -55071,7 +55070,7 @@
       </c>
       <c r="J972" s="3"/>
     </row>
-    <row r="973" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="973" spans="1:10" ht="15" thickBot="1">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -55101,7 +55100,7 @@
       </c>
       <c r="J973" s="3"/>
     </row>
-    <row r="974" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="974" spans="1:10" ht="15" thickBot="1">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -55131,7 +55130,7 @@
       </c>
       <c r="J974" s="3"/>
     </row>
-    <row r="975" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="975" spans="1:10" ht="15" thickBot="1">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -55161,7 +55160,7 @@
       </c>
       <c r="J975" s="3"/>
     </row>
-    <row r="976" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="976" spans="1:10" ht="15" thickBot="1">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -55191,7 +55190,7 @@
       </c>
       <c r="J976" s="3"/>
     </row>
-    <row r="977" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="977" spans="1:10" ht="15" thickBot="1">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -55221,7 +55220,7 @@
       </c>
       <c r="J977" s="3"/>
     </row>
-    <row r="978" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="978" spans="1:10" ht="15" thickBot="1">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -55251,7 +55250,7 @@
       </c>
       <c r="J978" s="3"/>
     </row>
-    <row r="979" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="979" spans="1:10" ht="15" thickBot="1">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -55281,7 +55280,7 @@
       </c>
       <c r="J979" s="3"/>
     </row>
-    <row r="980" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="980" spans="1:10" ht="15" thickBot="1">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -55311,7 +55310,7 @@
       </c>
       <c r="J980" s="3"/>
     </row>
-    <row r="981" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="981" spans="1:10" ht="15" thickBot="1">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -55341,7 +55340,7 @@
       </c>
       <c r="J981" s="3"/>
     </row>
-    <row r="982" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="982" spans="1:10" ht="15" thickBot="1">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -55371,7 +55370,7 @@
       </c>
       <c r="J982" s="3"/>
     </row>
-    <row r="983" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="983" spans="1:10" ht="15" thickBot="1">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -55401,7 +55400,7 @@
       </c>
       <c r="J983" s="3"/>
     </row>
-    <row r="984" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="984" spans="1:10" ht="15" thickBot="1">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -55431,7 +55430,7 @@
       </c>
       <c r="J984" s="3"/>
     </row>
-    <row r="985" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="985" spans="1:10" ht="15" thickBot="1">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -55461,7 +55460,7 @@
       </c>
       <c r="J985" s="3"/>
     </row>
-    <row r="986" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="986" spans="1:10" ht="15" thickBot="1">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -55491,7 +55490,7 @@
       </c>
       <c r="J986" s="3"/>
     </row>
-    <row r="987" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="987" spans="1:10" ht="15" thickBot="1">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -55521,7 +55520,7 @@
       </c>
       <c r="J987" s="3"/>
     </row>
-    <row r="988" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="988" spans="1:10" ht="15" thickBot="1">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -55551,7 +55550,7 @@
       </c>
       <c r="J988" s="3"/>
     </row>
-    <row r="989" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="989" spans="1:10" ht="15" thickBot="1">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -55581,7 +55580,7 @@
       </c>
       <c r="J989" s="3"/>
     </row>
-    <row r="990" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="990" spans="1:10" ht="15" thickBot="1">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -55611,7 +55610,7 @@
       </c>
       <c r="J990" s="3"/>
     </row>
-    <row r="991" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="991" spans="1:10" ht="15" thickBot="1">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -55641,7 +55640,7 @@
       </c>
       <c r="J991" s="3"/>
     </row>
-    <row r="992" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="992" spans="1:10" ht="15" thickBot="1">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -55671,7 +55670,7 @@
       </c>
       <c r="J992" s="3"/>
     </row>
-    <row r="993" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="993" spans="1:10" ht="15" thickBot="1">
       <c r="A993" s="1">
         <v>992</v>
       </c>
@@ -55701,7 +55700,7 @@
       </c>
       <c r="J993" s="3"/>
     </row>
-    <row r="994" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="994" spans="1:10" ht="15" thickBot="1">
       <c r="A994" s="1">
         <v>993</v>
       </c>
@@ -55731,7 +55730,7 @@
       </c>
       <c r="J994" s="3"/>
     </row>
-    <row r="995" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="995" spans="1:10" ht="15" thickBot="1">
       <c r="A995" s="1">
         <v>994</v>
       </c>
@@ -55761,7 +55760,7 @@
       </c>
       <c r="J995" s="3"/>
     </row>
-    <row r="996" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="996" spans="1:10" ht="15" thickBot="1">
       <c r="A996" s="1">
         <v>995</v>
       </c>
@@ -55791,7 +55790,7 @@
       </c>
       <c r="J996" s="3"/>
     </row>
-    <row r="997" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="997" spans="1:10" ht="15" thickBot="1">
       <c r="A997" s="1">
         <v>996</v>
       </c>
@@ -55821,7 +55820,7 @@
       </c>
       <c r="J997" s="3"/>
     </row>
-    <row r="998" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="998" spans="1:10" ht="15" thickBot="1">
       <c r="A998" s="1">
         <v>997</v>
       </c>
@@ -55851,7 +55850,7 @@
       </c>
       <c r="J998" s="3"/>
     </row>
-    <row r="999" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="999" spans="1:10" ht="15" thickBot="1">
       <c r="A999" s="1">
         <v>998</v>
       </c>
@@ -55881,7 +55880,7 @@
       </c>
       <c r="J999" s="3"/>
     </row>
-    <row r="1000" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1000" spans="1:10" ht="15" thickBot="1">
       <c r="A1000" s="1">
         <v>999</v>
       </c>
@@ -55911,7 +55910,7 @@
       </c>
       <c r="J1000" s="3"/>
     </row>
-    <row r="1001" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1001" spans="1:10" ht="15" thickBot="1">
       <c r="A1001" s="1">
         <v>1000</v>
       </c>
@@ -55941,7 +55940,7 @@
       </c>
       <c r="J1001" s="3"/>
     </row>
-    <row r="1002" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1002" spans="1:10" ht="15" thickBot="1">
       <c r="A1002" s="1">
         <v>1001</v>
       </c>
@@ -55971,7 +55970,7 @@
       </c>
       <c r="J1002" s="3"/>
     </row>
-    <row r="1003" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1003" spans="1:10" ht="15" thickBot="1">
       <c r="A1003" s="1">
         <v>1002</v>
       </c>
@@ -56001,7 +56000,7 @@
       </c>
       <c r="J1003" s="3"/>
     </row>
-    <row r="1004" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1004" spans="1:10" ht="15" thickBot="1">
       <c r="A1004" s="1">
         <v>1003</v>
       </c>
@@ -56031,7 +56030,7 @@
       </c>
       <c r="J1004" s="3"/>
     </row>
-    <row r="1005" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1005" spans="1:10" ht="15" thickBot="1">
       <c r="A1005" s="1">
         <v>1004</v>
       </c>
@@ -56061,7 +56060,7 @@
       </c>
       <c r="J1005" s="3"/>
     </row>
-    <row r="1006" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1006" spans="1:10" ht="15" thickBot="1">
       <c r="A1006" s="1">
         <v>1005</v>
       </c>
@@ -56091,7 +56090,7 @@
       </c>
       <c r="J1006" s="3"/>
     </row>
-    <row r="1007" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1007" spans="1:10" ht="15" thickBot="1">
       <c r="A1007" s="1">
         <v>1006</v>
       </c>
@@ -56121,7 +56120,7 @@
       </c>
       <c r="J1007" s="3"/>
     </row>
-    <row r="1008" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1008" spans="1:10" ht="15" thickBot="1">
       <c r="A1008" s="1">
         <v>1007</v>
       </c>
@@ -56151,7 +56150,7 @@
       </c>
       <c r="J1008" s="3"/>
     </row>
-    <row r="1009" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1009" spans="1:10" ht="15" thickBot="1">
       <c r="A1009" s="1">
         <v>1008</v>
       </c>
@@ -56181,7 +56180,7 @@
       </c>
       <c r="J1009" s="3"/>
     </row>
-    <row r="1010" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1010" spans="1:10" ht="15" thickBot="1">
       <c r="A1010" s="1">
         <v>1009</v>
       </c>
@@ -56211,7 +56210,7 @@
       </c>
       <c r="J1010" s="3"/>
     </row>
-    <row r="1011" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1011" spans="1:10" ht="15" thickBot="1">
       <c r="A1011" s="1">
         <v>1010</v>
       </c>
@@ -56241,7 +56240,7 @@
       </c>
       <c r="J1011" s="3"/>
     </row>
-    <row r="1012" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1012" spans="1:10" ht="15" thickBot="1">
       <c r="A1012" s="1">
         <v>1011</v>
       </c>
@@ -56271,7 +56270,7 @@
       </c>
       <c r="J1012" s="3"/>
     </row>
-    <row r="1013" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1013" spans="1:10" ht="15" thickBot="1">
       <c r="A1013" s="1">
         <v>1012</v>
       </c>
@@ -56301,7 +56300,7 @@
       </c>
       <c r="J1013" s="3"/>
     </row>
-    <row r="1014" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1014" spans="1:10" ht="15" thickBot="1">
       <c r="A1014" s="1">
         <v>1013</v>
       </c>
@@ -56331,7 +56330,7 @@
       </c>
       <c r="J1014" s="3"/>
     </row>
-    <row r="1015" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1015" spans="1:10" ht="15" thickBot="1">
       <c r="A1015" s="1">
         <v>1014</v>
       </c>
@@ -56361,7 +56360,7 @@
       </c>
       <c r="J1015" s="3"/>
     </row>
-    <row r="1016" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1016" spans="1:10" ht="15" thickBot="1">
       <c r="A1016" s="1">
         <v>1015</v>
       </c>
@@ -56391,7 +56390,7 @@
       </c>
       <c r="J1016" s="3"/>
     </row>
-    <row r="1017" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1017" spans="1:10" ht="15" thickBot="1">
       <c r="A1017" s="1">
         <v>1016</v>
       </c>
@@ -56421,7 +56420,7 @@
       </c>
       <c r="J1017" s="3"/>
     </row>
-    <row r="1018" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1018" spans="1:10" ht="15" thickBot="1">
       <c r="A1018" s="1">
         <v>1017</v>
       </c>
@@ -56451,7 +56450,7 @@
       </c>
       <c r="J1018" s="3"/>
     </row>
-    <row r="1019" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1019" spans="1:10" ht="15" thickBot="1">
       <c r="A1019" s="1">
         <v>1018</v>
       </c>
@@ -56481,7 +56480,7 @@
       </c>
       <c r="J1019" s="3"/>
     </row>
-    <row r="1020" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1020" spans="1:10" ht="15" thickBot="1">
       <c r="A1020" s="1">
         <v>1019</v>
       </c>
@@ -56511,7 +56510,7 @@
       </c>
       <c r="J1020" s="3"/>
     </row>
-    <row r="1021" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1021" spans="1:10" ht="15" thickBot="1">
       <c r="A1021" s="1">
         <v>1020</v>
       </c>
@@ -56541,7 +56540,7 @@
       </c>
       <c r="J1021" s="3"/>
     </row>
-    <row r="1022" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1022" spans="1:10" ht="15" thickBot="1">
       <c r="A1022" s="1">
         <v>1021</v>
       </c>
@@ -56571,7 +56570,7 @@
       </c>
       <c r="J1022" s="3"/>
     </row>
-    <row r="1023" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1023" spans="1:10" ht="15" thickBot="1">
       <c r="A1023" s="1">
         <v>1022</v>
       </c>
@@ -56601,7 +56600,7 @@
       </c>
       <c r="J1023" s="3"/>
     </row>
-    <row r="1024" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1024" spans="1:10" ht="15" thickBot="1">
       <c r="A1024" s="1">
         <v>1023</v>
       </c>
@@ -56631,7 +56630,7 @@
       </c>
       <c r="J1024" s="3"/>
     </row>
-    <row r="1025" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1025" spans="1:10" ht="15" thickBot="1">
       <c r="A1025" s="1">
         <v>1024</v>
       </c>
@@ -56661,7 +56660,7 @@
       </c>
       <c r="J1025" s="3"/>
     </row>
-    <row r="1026" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1026" spans="1:10" ht="15" thickBot="1">
       <c r="A1026" s="1">
         <v>1025</v>
       </c>
@@ -56691,7 +56690,7 @@
       </c>
       <c r="J1026" s="3"/>
     </row>
-    <row r="1027" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1027" spans="1:10" ht="15" thickBot="1">
       <c r="A1027" s="1">
         <v>1026</v>
       </c>
@@ -56721,7 +56720,7 @@
       </c>
       <c r="J1027" s="3"/>
     </row>
-    <row r="1028" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1028" spans="1:10" ht="15" thickBot="1">
       <c r="A1028" s="1">
         <v>1027</v>
       </c>
@@ -56751,7 +56750,7 @@
       </c>
       <c r="J1028" s="3"/>
     </row>
-    <row r="1029" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1029" spans="1:10" ht="15" thickBot="1">
       <c r="A1029" s="1">
         <v>1028</v>
       </c>
@@ -56781,7 +56780,7 @@
       </c>
       <c r="J1029" s="3"/>
     </row>
-    <row r="1030" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1030" spans="1:10" ht="15" thickBot="1">
       <c r="A1030" s="1">
         <v>1029</v>
       </c>
@@ -56811,7 +56810,7 @@
       </c>
       <c r="J1030" s="3"/>
     </row>
-    <row r="1031" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1031" spans="1:10" ht="15" thickBot="1">
       <c r="A1031" s="1">
         <v>1030</v>
       </c>
@@ -56841,7 +56840,7 @@
       </c>
       <c r="J1031" s="3"/>
     </row>
-    <row r="1032" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1032" spans="1:10" ht="15" thickBot="1">
       <c r="A1032" s="1">
         <v>1031</v>
       </c>
@@ -56871,7 +56870,7 @@
       </c>
       <c r="J1032" s="3"/>
     </row>
-    <row r="1033" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1033" spans="1:10" ht="15" thickBot="1">
       <c r="A1033" s="1">
         <v>1032</v>
       </c>
@@ -56901,7 +56900,7 @@
       </c>
       <c r="J1033" s="3"/>
     </row>
-    <row r="1034" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1034" spans="1:10" ht="15" thickBot="1">
       <c r="A1034" s="1">
         <v>1033</v>
       </c>
@@ -56931,7 +56930,7 @@
       </c>
       <c r="J1034" s="3"/>
     </row>
-    <row r="1035" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1035" spans="1:10" ht="15" thickBot="1">
       <c r="A1035" s="1">
         <v>1034</v>
       </c>
@@ -56961,7 +56960,7 @@
       </c>
       <c r="J1035" s="3"/>
     </row>
-    <row r="1036" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1036" spans="1:10" ht="15" thickBot="1">
       <c r="A1036" s="1">
         <v>1035</v>
       </c>
@@ -56991,7 +56990,7 @@
       </c>
       <c r="J1036" s="3"/>
     </row>
-    <row r="1037" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1037" spans="1:10" ht="15" thickBot="1">
       <c r="A1037" s="1">
         <v>1036</v>
       </c>
@@ -57021,7 +57020,7 @@
       </c>
       <c r="J1037" s="3"/>
     </row>
-    <row r="1038" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1038" spans="1:10" ht="15" thickBot="1">
       <c r="A1038" s="1">
         <v>1037</v>
       </c>
@@ -57051,7 +57050,7 @@
       </c>
       <c r="J1038" s="3"/>
     </row>
-    <row r="1039" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1039" spans="1:10" ht="15" thickBot="1">
       <c r="A1039" s="1">
         <v>1038</v>
       </c>
@@ -57081,7 +57080,7 @@
       </c>
       <c r="J1039" s="3"/>
     </row>
-    <row r="1040" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1040" spans="1:10" ht="15" thickBot="1">
       <c r="A1040" s="1">
         <v>1039</v>
       </c>
@@ -57111,7 +57110,7 @@
       </c>
       <c r="J1040" s="3"/>
     </row>
-    <row r="1041" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1041" spans="1:10" ht="15" thickBot="1">
       <c r="A1041" s="1">
         <v>1040</v>
       </c>
@@ -57141,7 +57140,7 @@
       </c>
       <c r="J1041" s="3"/>
     </row>
-    <row r="1042" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1042" spans="1:10" ht="15" thickBot="1">
       <c r="A1042" s="1">
         <v>1041</v>
       </c>
@@ -57171,7 +57170,7 @@
       </c>
       <c r="J1042" s="3"/>
     </row>
-    <row r="1043" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1043" spans="1:10" ht="15" thickBot="1">
       <c r="A1043" s="1">
         <v>1042</v>
       </c>
@@ -57201,7 +57200,7 @@
       </c>
       <c r="J1043" s="3"/>
     </row>
-    <row r="1044" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1044" spans="1:10" ht="15" thickBot="1">
       <c r="A1044" s="1">
         <v>1043</v>
       </c>
@@ -57231,7 +57230,7 @@
       </c>
       <c r="J1044" s="3"/>
     </row>
-    <row r="1045" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1045" spans="1:10" ht="15" thickBot="1">
       <c r="A1045" s="1">
         <v>1044</v>
       </c>
@@ -57261,7 +57260,7 @@
       </c>
       <c r="J1045" s="3"/>
     </row>
-    <row r="1046" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1046" spans="1:10" ht="15" thickBot="1">
       <c r="A1046" s="1">
         <v>1045</v>
       </c>
@@ -57291,7 +57290,7 @@
       </c>
       <c r="J1046" s="3"/>
     </row>
-    <row r="1047" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1047" spans="1:10" ht="15" thickBot="1">
       <c r="A1047" s="1">
         <v>1046</v>
       </c>
@@ -57321,7 +57320,7 @@
       </c>
       <c r="J1047" s="3"/>
     </row>
-    <row r="1048" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1048" spans="1:10" ht="15" thickBot="1">
       <c r="A1048" s="1">
         <v>1047</v>
       </c>
@@ -57351,7 +57350,7 @@
       </c>
       <c r="J1048" s="3"/>
     </row>
-    <row r="1049" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1049" spans="1:10" ht="15" thickBot="1">
       <c r="A1049" s="1">
         <v>1048</v>
       </c>
@@ -57381,7 +57380,7 @@
       </c>
       <c r="J1049" s="3"/>
     </row>
-    <row r="1050" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1050" spans="1:10" ht="15" thickBot="1">
       <c r="A1050" s="1">
         <v>1049</v>
       </c>
@@ -57411,7 +57410,7 @@
       </c>
       <c r="J1050" s="3"/>
     </row>
-    <row r="1051" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1051" spans="1:10" ht="15" thickBot="1">
       <c r="A1051" s="1">
         <v>1050</v>
       </c>
@@ -57441,7 +57440,7 @@
       </c>
       <c r="J1051" s="3"/>
     </row>
-    <row r="1052" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1052" spans="1:10" ht="15" thickBot="1">
       <c r="A1052" s="1">
         <v>1051</v>
       </c>
@@ -57471,7 +57470,7 @@
       </c>
       <c r="J1052" s="3"/>
     </row>
-    <row r="1053" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1053" spans="1:10" ht="15" thickBot="1">
       <c r="A1053" s="1">
         <v>1052</v>
       </c>
@@ -57501,7 +57500,7 @@
       </c>
       <c r="J1053" s="3"/>
     </row>
-    <row r="1054" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1054" spans="1:10" ht="15" thickBot="1">
       <c r="A1054" s="1">
         <v>1053</v>
       </c>
@@ -57531,7 +57530,7 @@
       </c>
       <c r="J1054" s="3"/>
     </row>
-    <row r="1055" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1055" spans="1:10" ht="15" thickBot="1">
       <c r="A1055" s="1">
         <v>1054</v>
       </c>
@@ -57561,7 +57560,7 @@
       </c>
       <c r="J1055" s="3"/>
     </row>
-    <row r="1056" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1056" spans="1:10" ht="15" thickBot="1">
       <c r="A1056" s="1">
         <v>1055</v>
       </c>
@@ -57591,7 +57590,7 @@
       </c>
       <c r="J1056" s="3"/>
     </row>
-    <row r="1057" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1057" spans="1:10" ht="15" thickBot="1">
       <c r="A1057" s="1">
         <v>1056</v>
       </c>
@@ -57621,7 +57620,7 @@
       </c>
       <c r="J1057" s="3"/>
     </row>
-    <row r="1058" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1058" spans="1:10" ht="15" thickBot="1">
       <c r="A1058" s="1">
         <v>1057</v>
       </c>
@@ -57651,7 +57650,7 @@
       </c>
       <c r="J1058" s="3"/>
     </row>
-    <row r="1059" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1059" spans="1:10" ht="15" thickBot="1">
       <c r="A1059" s="1">
         <v>1058</v>
       </c>
@@ -57681,7 +57680,7 @@
       </c>
       <c r="J1059" s="3"/>
     </row>
-    <row r="1060" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1060" spans="1:10" ht="15" thickBot="1">
       <c r="A1060" s="1">
         <v>1059</v>
       </c>
@@ -57711,7 +57710,7 @@
       </c>
       <c r="J1060" s="3"/>
     </row>
-    <row r="1061" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1061" spans="1:10" ht="15" thickBot="1">
       <c r="A1061" s="1">
         <v>1060</v>
       </c>
@@ -57741,7 +57740,7 @@
       </c>
       <c r="J1061" s="3"/>
     </row>
-    <row r="1062" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1062" spans="1:10" ht="15" thickBot="1">
       <c r="A1062" s="1">
         <v>1061</v>
       </c>
@@ -57771,7 +57770,7 @@
       </c>
       <c r="J1062" s="3"/>
     </row>
-    <row r="1063" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1063" spans="1:10" ht="15" thickBot="1">
       <c r="A1063" s="1">
         <v>1062</v>
       </c>
@@ -57801,7 +57800,7 @@
       </c>
       <c r="J1063" s="3"/>
     </row>
-    <row r="1064" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1064" spans="1:10" ht="15" thickBot="1">
       <c r="A1064" s="1">
         <v>1063</v>
       </c>
@@ -57831,7 +57830,7 @@
       </c>
       <c r="J1064" s="3"/>
     </row>
-    <row r="1065" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1065" spans="1:10" ht="15" thickBot="1">
       <c r="A1065" s="1">
         <v>1064</v>
       </c>
@@ -57861,7 +57860,7 @@
       </c>
       <c r="J1065" s="3"/>
     </row>
-    <row r="1066" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1066" spans="1:10" ht="15" thickBot="1">
       <c r="A1066" s="1">
         <v>1065</v>
       </c>
@@ -57891,7 +57890,7 @@
       </c>
       <c r="J1066" s="3"/>
     </row>
-    <row r="1067" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1067" spans="1:10" ht="15" thickBot="1">
       <c r="A1067" s="1">
         <v>1066</v>
       </c>
@@ -57921,7 +57920,7 @@
       </c>
       <c r="J1067" s="3"/>
     </row>
-    <row r="1068" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1068" spans="1:10" ht="15" thickBot="1">
       <c r="A1068" s="1">
         <v>1067</v>
       </c>
@@ -57951,7 +57950,7 @@
       </c>
       <c r="J1068" s="3"/>
     </row>
-    <row r="1069" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1069" spans="1:10" ht="15" thickBot="1">
       <c r="A1069" s="1">
         <v>1068</v>
       </c>
@@ -57981,7 +57980,7 @@
       </c>
       <c r="J1069" s="3"/>
     </row>
-    <row r="1070" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1070" spans="1:10" ht="15" thickBot="1">
       <c r="A1070" s="1">
         <v>1069</v>
       </c>
@@ -58011,7 +58010,7 @@
       </c>
       <c r="J1070" s="3"/>
     </row>
-    <row r="1071" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1071" spans="1:10" ht="15" thickBot="1">
       <c r="A1071" s="1">
         <v>1070</v>
       </c>
@@ -58041,7 +58040,7 @@
       </c>
       <c r="J1071" s="3"/>
     </row>
-    <row r="1072" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1072" spans="1:10" ht="15" thickBot="1">
       <c r="A1072" s="1">
         <v>1071</v>
       </c>
@@ -58071,7 +58070,7 @@
       </c>
       <c r="J1072" s="3"/>
     </row>
-    <row r="1073" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1073" spans="1:10" ht="15" thickBot="1">
       <c r="A1073" s="1">
         <v>1072</v>
       </c>
@@ -58101,7 +58100,7 @@
       </c>
       <c r="J1073" s="3"/>
     </row>
-    <row r="1074" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1074" spans="1:10" ht="15" thickBot="1">
       <c r="A1074" s="1">
         <v>1073</v>
       </c>
@@ -58131,7 +58130,7 @@
       </c>
       <c r="J1074" s="3"/>
     </row>
-    <row r="1075" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1075" spans="1:10" ht="15" thickBot="1">
       <c r="A1075" s="1">
         <v>1074</v>
       </c>
@@ -58161,7 +58160,7 @@
       </c>
       <c r="J1075" s="3"/>
     </row>
-    <row r="1076" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1076" spans="1:10" ht="15" thickBot="1">
       <c r="A1076" s="1">
         <v>1075</v>
       </c>
@@ -58191,7 +58190,7 @@
       </c>
       <c r="J1076" s="3"/>
     </row>
-    <row r="1077" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1077" spans="1:10" ht="15" thickBot="1">
       <c r="A1077" s="1">
         <v>1076</v>
       </c>
@@ -58221,7 +58220,7 @@
       </c>
       <c r="J1077" s="3"/>
     </row>
-    <row r="1078" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1078" spans="1:10" ht="15" thickBot="1">
       <c r="A1078" s="1">
         <v>1077</v>
       </c>
@@ -58251,7 +58250,7 @@
       </c>
       <c r="J1078" s="3"/>
     </row>
-    <row r="1079" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1079" spans="1:10" ht="15" thickBot="1">
       <c r="A1079" s="1">
         <v>1078</v>
       </c>
@@ -58281,7 +58280,7 @@
       </c>
       <c r="J1079" s="3"/>
     </row>
-    <row r="1080" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1080" spans="1:10" ht="15" thickBot="1">
       <c r="A1080" s="1">
         <v>1079</v>
       </c>
@@ -58311,7 +58310,7 @@
       </c>
       <c r="J1080" s="3"/>
     </row>
-    <row r="1081" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1081" spans="1:10" ht="15" thickBot="1">
       <c r="A1081" s="1">
         <v>1080</v>
       </c>
@@ -58341,7 +58340,7 @@
       </c>
       <c r="J1081" s="3"/>
     </row>
-    <row r="1082" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1082" spans="1:10" ht="15" thickBot="1">
       <c r="A1082" s="1">
         <v>1081</v>
       </c>
@@ -58371,7 +58370,7 @@
       </c>
       <c r="J1082" s="3"/>
     </row>
-    <row r="1083" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1083" spans="1:10" ht="15" thickBot="1">
       <c r="A1083" s="1">
         <v>1082</v>
       </c>
@@ -58401,7 +58400,7 @@
       </c>
       <c r="J1083" s="3"/>
     </row>
-    <row r="1084" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1084" spans="1:10" ht="15" thickBot="1">
       <c r="A1084" s="1">
         <v>1083</v>
       </c>
@@ -58431,7 +58430,7 @@
       </c>
       <c r="J1084" s="3"/>
     </row>
-    <row r="1085" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1085" spans="1:10" ht="15" thickBot="1">
       <c r="A1085" s="1">
         <v>1084</v>
       </c>
@@ -58461,7 +58460,7 @@
       </c>
       <c r="J1085" s="3"/>
     </row>
-    <row r="1086" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1086" spans="1:10" ht="15" thickBot="1">
       <c r="A1086" s="1">
         <v>1085</v>
       </c>
@@ -58491,7 +58490,7 @@
       </c>
       <c r="J1086" s="3"/>
     </row>
-    <row r="1087" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1087" spans="1:10" ht="15" thickBot="1">
       <c r="A1087" s="1">
         <v>1086</v>
       </c>
@@ -58521,7 +58520,7 @@
       </c>
       <c r="J1087" s="3"/>
     </row>
-    <row r="1088" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1088" spans="1:10" ht="15" thickBot="1">
       <c r="A1088" s="1">
         <v>1087</v>
       </c>
@@ -58551,7 +58550,7 @@
       </c>
       <c r="J1088" s="3"/>
     </row>
-    <row r="1089" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1089" spans="1:10" ht="15" thickBot="1">
       <c r="A1089" s="1">
         <v>1088</v>
       </c>
@@ -58581,7 +58580,7 @@
       </c>
       <c r="J1089" s="3"/>
     </row>
-    <row r="1090" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1090" spans="1:10" ht="15" thickBot="1">
       <c r="A1090" s="1">
         <v>1089</v>
       </c>
@@ -58611,7 +58610,7 @@
       </c>
       <c r="J1090" s="3"/>
     </row>
-    <row r="1091" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1091" spans="1:10" ht="15" thickBot="1">
       <c r="A1091" s="1">
         <v>1090</v>
       </c>
@@ -58641,7 +58640,7 @@
       </c>
       <c r="J1091" s="3"/>
     </row>
-    <row r="1092" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1092" spans="1:10" ht="15" thickBot="1">
       <c r="A1092" s="1">
         <v>1091</v>
       </c>
@@ -58671,7 +58670,7 @@
       </c>
       <c r="J1092" s="3"/>
     </row>
-    <row r="1093" spans="1:10" ht="15" hidden="1" thickBot="1">
+    <row r="1093" spans="1:10" ht="15" thickBot="1">
       <c r="A1093" s="1">
         <v>1092</v>
       </c>
@@ -96172,28 +96171,7 @@
       <c r="J2342" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2342">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2017" month="9" day="11" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="12" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="13" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="14" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="15" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="16" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="17" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="18" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="19" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="20" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="21" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="24" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="25" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="26" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J2342"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
